--- a/data/RESULTADOS_USABILIDAD.xlsx
+++ b/data/RESULTADOS_USABILIDAD.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailinternacionaledu-my.sharepoint.com/personal/milabandaja_internacional_edu_ec/Documents/Investigacion/ArticuloUsabilidadWeb/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="599" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="599"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Resultados" sheetId="1" r:id="rId1"/>
+    <sheet name="Clasificaciones" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="208">
   <si>
     <t>UNIVERSIDAD</t>
   </si>
@@ -23,6 +28,9 @@
     <t>ABREV.</t>
   </si>
   <si>
+    <t>Régimen</t>
+  </si>
+  <si>
     <t>% USABILIDAD</t>
   </si>
   <si>
@@ -281,13 +289,25 @@
     <t>EPN</t>
   </si>
   <si>
-    <t>ESCUELA SUPERIOR POLITÉCNICA DE CHIMBORAZO </t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>NTS</t>
+  </si>
+  <si>
+    <t>ESCUELA SUPERIOR POLITÉCNICA DE CHIMBORAZO</t>
   </si>
   <si>
     <t>ESPOCH</t>
   </si>
   <si>
-    <t>ESCUELA SUPERIOR POLITECNICA DEL LITORAL</t>
+    <t>B</t>
+  </si>
+  <si>
+    <t>NPP</t>
+  </si>
+  <si>
+    <t>NPI</t>
   </si>
   <si>
     <t>ESPOL</t>
@@ -305,7 +325,7 @@
     <t>UCG</t>
   </si>
   <si>
-    <t>UNIVERSIDAD CATOLICA DE SANTIAGO DE GUAYAQUIL</t>
+    <t xml:space="preserve">NTS </t>
   </si>
   <si>
     <t>UCSG</t>
@@ -317,31 +337,28 @@
     <t>UCE</t>
   </si>
   <si>
+    <t>NEP</t>
+  </si>
+  <si>
     <t>UNIVERSIDAD NACIONAL DE CHIMBORAZO</t>
   </si>
   <si>
-    <t>UCH</t>
-  </si>
-  <si>
-    <t>UNIVERSIDAD TÉCNICA DE COTOPAXI </t>
-  </si>
-  <si>
-    <t>UCX</t>
+    <t>UNACH</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD TÉCNICA DE COTOPAXI</t>
+  </si>
+  <si>
+    <t>UTC</t>
   </si>
   <si>
     <t>UNIVERSIDAD DE CUENCA</t>
   </si>
   <si>
-    <t>UC </t>
-  </si>
-  <si>
-    <t>UNIVERSIDAD DE ESPECIALIDADES TURISTICAS</t>
-  </si>
-  <si>
-    <t>UET</t>
-  </si>
-  <si>
-    <t>UNIVERSIDAD DE LAS AMERICAS</t>
+    <t>UC</t>
   </si>
   <si>
     <t>UDLA</t>
@@ -353,28 +370,22 @@
     <t>UDA</t>
   </si>
   <si>
-    <t>UNIVERSIDAD DEL PACIFICO</t>
-  </si>
-  <si>
     <t>UP</t>
   </si>
   <si>
-    <t>UNIVERSIDAD ESTATAL DE BOLIVAR</t>
-  </si>
-  <si>
     <t>UEB</t>
   </si>
   <si>
     <t>UNIVERSIDAD TÉCNICA ESTATAL DE QUEVEDO</t>
   </si>
   <si>
-    <t>UEQ</t>
+    <t>UTEQ</t>
   </si>
   <si>
     <t>UNIVERSIDAD METROPOLITANA</t>
   </si>
   <si>
-    <t>UM</t>
+    <t>UMET</t>
   </si>
   <si>
     <t>UNIVERSIDAD NACIONAL DE LOJA.</t>
@@ -383,28 +394,19 @@
     <t>UNL</t>
   </si>
   <si>
-    <t>UNIVERSIDAD PARTICULAR DE ESPECIALIDADES ESPIRITU SANTO</t>
-  </si>
-  <si>
-    <t>Espec</t>
+    <t>UEES</t>
   </si>
   <si>
     <t>ESCUELA SUPERIOR POLITÉCNICA AGROPECUARIA DE MANABÍ</t>
   </si>
   <si>
-    <t>UPM</t>
-  </si>
-  <si>
-    <t>UNIVERSIDAD POLITECNICA SALESIANA</t>
+    <t>ESPAM</t>
   </si>
   <si>
     <t>UPS</t>
   </si>
   <si>
-    <t>UNIVERSIDAD REGIONAL AUTONOMA DE LOS ANDES</t>
-  </si>
-  <si>
-    <t>URAA</t>
+    <t>UNIANDES</t>
   </si>
   <si>
     <t>UNIVERSIDAD SAN FRANCISCO DE QUITO</t>
@@ -437,15 +439,9 @@
     <t>UTN</t>
   </si>
   <si>
-    <t>UNIVERSIDAD TECNICA PARTICULAR DE LOJA</t>
-  </si>
-  <si>
     <t>UTPL</t>
   </si>
   <si>
-    <t>UNIVERSIDAD TECNOLOGICA EMPRESARIAL DE GUAYAQUIL</t>
-  </si>
-  <si>
     <t>UTEG</t>
   </si>
   <si>
@@ -455,16 +451,13 @@
     <t>UTI</t>
   </si>
   <si>
-    <t>UNIVERSIDAD TECNOLOGICA ISRAEL</t>
+    <t>UISRAEL</t>
   </si>
   <si>
     <t>UNIVERSIDAD LAICA VICENTE ROCAFUERTE</t>
   </si>
   <si>
-    <t>UVR</t>
-  </si>
-  <si>
-    <t>UNIVERSIDAD INTERNACINAL DEL ECUADOR</t>
+    <t>ULVR</t>
   </si>
   <si>
     <t>UIDE</t>
@@ -473,40 +466,201 @@
     <t>UNIVERSIDAD ESTATAL DE MILAGRO</t>
   </si>
   <si>
+    <t>UNEMI</t>
+  </si>
+  <si>
     <t>UNIVERSIDAD TECNOLÓGICA EQUINOCCIAL</t>
+  </si>
+  <si>
+    <t>UTE</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>RÉGIMEN</t>
+  </si>
+  <si>
+    <t>PARTICULAR</t>
+  </si>
+  <si>
+    <t>PÚBLICO</t>
+  </si>
+  <si>
+    <t>SIGLAS</t>
+  </si>
+  <si>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>ESCUELA SUPERIOR POLITÉCNICA DEL LITORAL</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD INTERNACIONAL DEL ECUADOR</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD TECNOLÓGICA ISRAEL</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD TÉCNICA PARTICULAR DE LOJA</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD TECNOLÓGICA EMPRESARIAL DE GUAYAQUIL</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE ESPECIALIDADES TURÍSTICAS</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD REGIONAL AUTÓNOMA DE LOS ANDES</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD POLITÉCNICA SALESIANA</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD PARTICULAR DE ESPECIALIDADES ESPÍRITU SANTO</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD ESTATAL DE BOLÍVAR</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE LAS AMÉRICAS</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD CATÓLICA DE SANTIAGO DE GUAYAQUIL</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>http://www.epn.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://www.espoch.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://www.espol.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://www.puce.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://www.ucsg.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://www.uce.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://www.unach.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://www.utc.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://www.ucuenca.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://www.udet.edu.ec/</t>
+  </si>
+  <si>
+    <t>UDET</t>
+  </si>
+  <si>
+    <t>http://www.udla.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://www.uazuay.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://upacifico.edu.ec/web/</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DEL PACÍFICO</t>
+  </si>
+  <si>
+    <t>http://www.ueb.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://uteq.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://umet.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://www.unl.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://uees.me/</t>
+  </si>
+  <si>
+    <t>http://espam.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://ups.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://www.uniandes.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://www.usfq.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://uisek.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://uta.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://www.utb.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://utn.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://utpl.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://www.uteg.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://www.uti.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://www.uisrael.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://www.ulvr.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://uide.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://www.ute.edu.ec/</t>
+  </si>
+  <si>
+    <t>http://www.unemi.edu.ec/web/</t>
+  </si>
+  <si>
+    <t>WEBSITE</t>
+  </si>
+  <si>
+    <t>CATEGORIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0.00000%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -516,9 +670,36 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="14"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FFC55A11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -538,15 +719,15 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="8">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="medium">
         <color rgb="FFC55A11"/>
@@ -557,7 +738,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFC55A11"/>
       </left>
@@ -570,7 +751,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFC55A11"/>
       </left>
@@ -581,7 +762,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="medium">
         <color rgb="FFC55A11"/>
@@ -590,7 +771,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFC55A11"/>
       </left>
@@ -601,7 +782,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFC55A11"/>
       </left>
@@ -610,122 +791,149 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="41">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -784,435 +992,830 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:CH36"/>
+  <dimension ref="A1:AMN36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="56.4210526315789"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="10.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.4331983805668"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="3" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="3" width="14.2834008097166"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="3" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="3" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="3" width="14.2834008097166"/>
-    <col collapsed="false" hidden="false" max="22" min="15" style="3" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="3" width="14.2834008097166"/>
-    <col collapsed="false" hidden="false" max="27" min="24" style="3" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="3" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="37" min="29" style="3" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="3" width="14.2834008097166"/>
-    <col collapsed="false" hidden="false" max="69" min="39" style="3" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="70" min="70" style="3" width="14.2834008097166"/>
-    <col collapsed="false" hidden="false" max="74" min="71" style="3" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="76" min="75" style="3" width="14.2834008097166"/>
-    <col collapsed="false" hidden="false" max="86" min="77" style="3" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="1025" min="87" style="4" width="5"/>
+    <col min="1" max="1" width="56.42578125" style="1"/>
+    <col min="2" max="2" width="12.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.85546875" style="3"/>
+    <col min="10" max="11" width="14.28515625" style="3"/>
+    <col min="12" max="12" width="12.85546875" style="3"/>
+    <col min="13" max="13" width="11.5703125" style="3"/>
+    <col min="14" max="16" width="12.85546875" style="3"/>
+    <col min="17" max="17" width="14.28515625" style="3"/>
+    <col min="18" max="25" width="12.85546875" style="3"/>
+    <col min="26" max="26" width="14.28515625" style="3"/>
+    <col min="27" max="30" width="12.85546875" style="3"/>
+    <col min="31" max="31" width="11.5703125" style="3"/>
+    <col min="32" max="40" width="12.85546875" style="3"/>
+    <col min="41" max="41" width="14.28515625" style="3"/>
+    <col min="42" max="72" width="12.85546875" style="3"/>
+    <col min="73" max="73" width="14.28515625" style="3"/>
+    <col min="74" max="77" width="12.85546875" style="3"/>
+    <col min="78" max="79" width="14.28515625" style="3"/>
+    <col min="80" max="89" width="12.85546875" style="3"/>
+    <col min="90" max="1028" width="5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:89" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="O1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="P1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="Q1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="R1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="S1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="T1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="U1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="V1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="W1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="X1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="Y1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Z1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AA1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AB1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AC1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AD1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AE1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AF1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AG1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AH1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AI1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AJ1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AK1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AL1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AM1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AN1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AO1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AP1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AQ1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AR1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AS1" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AT1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AU1" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AV1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AW1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AX1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="AY1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AZ1" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="BA1" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="8" t="s">
+      <c r="BB1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="8" t="s">
+      <c r="BC1" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BD1" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="8" t="s">
+      <c r="BE1" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="8" t="s">
+      <c r="BF1" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="8" t="s">
+      <c r="BG1" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="8" t="s">
+      <c r="BH1" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="8" t="s">
+      <c r="BI1" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="8" t="s">
+      <c r="BJ1" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="8" t="s">
+      <c r="BK1" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="8" t="s">
+      <c r="BL1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="8" t="s">
+      <c r="BM1" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="8" t="s">
+      <c r="BN1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="8" t="s">
+      <c r="BO1" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="8" t="s">
+      <c r="BP1" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="8" t="s">
+      <c r="BQ1" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="8" t="s">
+      <c r="BR1" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="8" t="s">
+      <c r="BS1" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="8" t="s">
+      <c r="BT1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="8" t="s">
+      <c r="BU1" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="8" t="s">
+      <c r="BV1" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="8" t="s">
+      <c r="BW1" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="8" t="s">
+      <c r="BX1" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="8" t="s">
+      <c r="BY1" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="8" t="s">
+      <c r="BZ1" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="8" t="s">
+      <c r="CA1" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="8" t="s">
+      <c r="CB1" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="8" t="s">
+      <c r="CC1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="8" t="s">
+      <c r="CD1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="8" t="s">
+      <c r="CE1" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="8" t="s">
+      <c r="CF1" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="8" t="s">
+      <c r="CG1" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="8" t="s">
+      <c r="CH1" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="8" t="s">
+      <c r="CI1" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="9" t="s">
+      <c r="CJ1" s="26" t="s">
         <v>85</v>
       </c>
+      <c r="CK1" s="27" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="B2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="13">
+        <v>9</v>
+      </c>
+      <c r="H2" s="13">
+        <v>9</v>
+      </c>
       <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="J2" s="13">
+        <v>8</v>
+      </c>
+      <c r="K2" s="13">
+        <v>9</v>
+      </c>
+      <c r="L2" s="13">
+        <v>8</v>
+      </c>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13">
+        <v>9</v>
+      </c>
       <c r="R2" s="14"/>
-      <c r="S2" s="13"/>
+      <c r="S2" s="14"/>
       <c r="T2" s="13"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
+      <c r="U2" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="X2" s="14"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="14"/>
+      <c r="Y2" s="13">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="13">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="13"/>
       <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
+      <c r="AD2" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="AE2" s="14"/>
       <c r="AF2" s="14"/>
       <c r="AG2" s="14"/>
       <c r="AH2" s="14"/>
       <c r="AI2" s="14"/>
       <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
+      <c r="AK2" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
       <c r="AO2" s="13"/>
       <c r="AP2" s="13"/>
       <c r="AQ2" s="13"/>
-      <c r="AR2" s="14"/>
+      <c r="AR2" s="13"/>
       <c r="AS2" s="13"/>
       <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="14"/>
-      <c r="AY2" s="14"/>
-      <c r="AZ2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="13">
+        <v>8</v>
+      </c>
+      <c r="AW2" s="13">
+        <v>8</v>
+      </c>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="13"/>
+      <c r="AZ2" s="13"/>
       <c r="BA2" s="14"/>
-      <c r="BB2" s="13"/>
-      <c r="BC2" s="13"/>
-      <c r="BD2" s="13"/>
-      <c r="BE2" s="14"/>
+      <c r="BB2" s="14"/>
+      <c r="BC2" s="14"/>
+      <c r="BD2" s="14"/>
+      <c r="BE2" s="13"/>
       <c r="BF2" s="13"/>
-      <c r="BG2" s="14"/>
+      <c r="BG2" s="13"/>
       <c r="BH2" s="14"/>
-      <c r="BI2" s="14"/>
-      <c r="BJ2" s="13"/>
+      <c r="BI2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BJ2" s="14"/>
       <c r="BK2" s="14"/>
       <c r="BL2" s="14"/>
-      <c r="BM2" s="14"/>
-      <c r="BN2" s="14"/>
+      <c r="BM2" s="13"/>
+      <c r="BN2" s="14" t="s">
+        <v>90</v>
+      </c>
       <c r="BO2" s="14"/>
       <c r="BP2" s="14"/>
       <c r="BQ2" s="14"/>
       <c r="BR2" s="14"/>
       <c r="BS2" s="14"/>
-      <c r="BT2" s="13"/>
+      <c r="BT2" s="14"/>
       <c r="BU2" s="14"/>
       <c r="BV2" s="14"/>
       <c r="BW2" s="13"/>
-      <c r="BX2" s="13"/>
-      <c r="BY2" s="13"/>
-      <c r="BZ2" s="13"/>
-      <c r="CA2" s="13"/>
+      <c r="BX2" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY2" s="14"/>
+      <c r="BZ2" s="13">
+        <v>9</v>
+      </c>
+      <c r="CA2" s="13">
+        <v>7</v>
+      </c>
       <c r="CB2" s="13"/>
       <c r="CC2" s="13"/>
-      <c r="CD2" s="13"/>
-      <c r="CE2" s="13"/>
-      <c r="CF2" s="13"/>
-      <c r="CG2" s="14"/>
-      <c r="CH2" s="15"/>
+      <c r="CD2" s="13">
+        <v>0</v>
+      </c>
+      <c r="CE2" s="13">
+        <v>8</v>
+      </c>
+      <c r="CF2" s="13">
+        <v>8</v>
+      </c>
+      <c r="CG2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH2" s="13">
+        <v>0</v>
+      </c>
+      <c r="CI2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ2" s="14">
+        <v>0</v>
+      </c>
+      <c r="CK2" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
+    <row r="3" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="13">
+        <v>5</v>
+      </c>
+      <c r="H3" s="13">
+        <v>6</v>
+      </c>
+      <c r="I3" s="13">
+        <v>6</v>
+      </c>
+      <c r="J3" s="13">
+        <v>6</v>
+      </c>
+      <c r="K3" s="13">
+        <v>6</v>
+      </c>
+      <c r="L3" s="13">
+        <v>6</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>9</v>
+      </c>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
+      <c r="T3" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
+      <c r="V3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
+      <c r="Y3" s="13">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="13">
+        <v>7</v>
+      </c>
       <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
+      <c r="AB3" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
+      <c r="AD3" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
       <c r="AG3" s="13"/>
@@ -1223,31 +1826,63 @@
       <c r="AL3" s="13"/>
       <c r="AM3" s="13"/>
       <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
-      <c r="AT3" s="13"/>
+      <c r="AO3" s="13">
+        <v>8</v>
+      </c>
+      <c r="AP3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT3" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="AU3" s="13"/>
-      <c r="AV3" s="13"/>
-      <c r="AW3" s="13"/>
-      <c r="AX3" s="13"/>
-      <c r="AY3" s="13"/>
-      <c r="AZ3" s="13"/>
+      <c r="AV3" s="13">
+        <v>6</v>
+      </c>
+      <c r="AW3" s="13">
+        <v>7</v>
+      </c>
+      <c r="AX3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ3" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="BA3" s="13"/>
       <c r="BB3" s="13"/>
       <c r="BC3" s="13"/>
       <c r="BD3" s="13"/>
-      <c r="BE3" s="13"/>
-      <c r="BF3" s="13"/>
-      <c r="BG3" s="13"/>
+      <c r="BE3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BF3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BG3" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="BH3" s="13"/>
-      <c r="BI3" s="13"/>
+      <c r="BI3" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="BJ3" s="13"/>
       <c r="BK3" s="13"/>
       <c r="BL3" s="13"/>
-      <c r="BM3" s="13"/>
+      <c r="BM3" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="BN3" s="13"/>
       <c r="BO3" s="13"/>
       <c r="BP3" s="13"/>
@@ -1257,87 +1892,186 @@
       <c r="BT3" s="13"/>
       <c r="BU3" s="13"/>
       <c r="BV3" s="13"/>
-      <c r="BW3" s="13"/>
+      <c r="BW3" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="BX3" s="13"/>
       <c r="BY3" s="13"/>
-      <c r="BZ3" s="13"/>
-      <c r="CA3" s="13"/>
-      <c r="CB3" s="13"/>
-      <c r="CC3" s="13"/>
-      <c r="CD3" s="13"/>
-      <c r="CE3" s="13"/>
-      <c r="CF3" s="13"/>
-      <c r="CG3" s="13"/>
-      <c r="CH3" s="16"/>
+      <c r="BZ3" s="13">
+        <v>9</v>
+      </c>
+      <c r="CA3" s="13">
+        <v>8</v>
+      </c>
+      <c r="CB3" s="13">
+        <v>8</v>
+      </c>
+      <c r="CC3" s="13">
+        <v>8</v>
+      </c>
+      <c r="CD3" s="13">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="13">
+        <v>8</v>
+      </c>
+      <c r="CF3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CG3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH3" s="13">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ3" s="13"/>
+      <c r="CK3" s="16"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+    <row r="4" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="13">
+        <v>5</v>
+      </c>
+      <c r="H4" s="13">
+        <v>6</v>
+      </c>
+      <c r="I4" s="13">
+        <v>5</v>
+      </c>
+      <c r="J4" s="13">
+        <v>5</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="13">
+        <v>6</v>
+      </c>
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
+      <c r="Q4" s="13">
+        <v>9</v>
+      </c>
       <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
+      <c r="S4" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="X4" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="13">
+        <v>7</v>
+      </c>
       <c r="AA4" s="13"/>
       <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
+      <c r="AC4" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD4" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="AE4" s="13"/>
       <c r="AF4" s="13"/>
       <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
+      <c r="AH4" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
+      <c r="AJ4" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK4" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL4" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
+      <c r="AN4" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
+      <c r="AP4" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="AQ4" s="13"/>
       <c r="AR4" s="13"/>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="13"/>
-      <c r="AX4" s="13"/>
+      <c r="AS4" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT4" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU4" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV4" s="13">
+        <v>8</v>
+      </c>
+      <c r="AW4" s="13">
+        <v>7</v>
+      </c>
+      <c r="AX4" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="AY4" s="13"/>
-      <c r="AZ4" s="13"/>
+      <c r="AZ4" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="BA4" s="13"/>
       <c r="BB4" s="13"/>
       <c r="BC4" s="13"/>
       <c r="BD4" s="13"/>
-      <c r="BE4" s="13"/>
+      <c r="BE4" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="BF4" s="13"/>
       <c r="BG4" s="13"/>
       <c r="BH4" s="13"/>
-      <c r="BI4" s="13"/>
-      <c r="BJ4" s="13"/>
-      <c r="BK4" s="13"/>
+      <c r="BI4" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BJ4" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK4" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="BL4" s="13"/>
       <c r="BM4" s="13"/>
       <c r="BN4" s="13"/>
@@ -1346,57 +2080,116 @@
       <c r="BQ4" s="13"/>
       <c r="BR4" s="13"/>
       <c r="BS4" s="13"/>
-      <c r="BT4" s="13"/>
-      <c r="BU4" s="13"/>
-      <c r="BV4" s="13"/>
+      <c r="BT4" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BU4" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BV4" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="BW4" s="13"/>
       <c r="BX4" s="13"/>
       <c r="BY4" s="13"/>
-      <c r="BZ4" s="13"/>
-      <c r="CA4" s="13"/>
-      <c r="CB4" s="13"/>
-      <c r="CC4" s="13"/>
-      <c r="CD4" s="13"/>
-      <c r="CE4" s="13"/>
-      <c r="CF4" s="13"/>
-      <c r="CG4" s="13"/>
-      <c r="CH4" s="16"/>
+      <c r="BZ4" s="13">
+        <v>8</v>
+      </c>
+      <c r="CA4" s="13">
+        <v>7</v>
+      </c>
+      <c r="CB4" s="13">
+        <v>7</v>
+      </c>
+      <c r="CC4" s="13">
+        <v>9</v>
+      </c>
+      <c r="CD4" s="13">
+        <v>0</v>
+      </c>
+      <c r="CE4" s="13">
+        <v>9</v>
+      </c>
+      <c r="CF4" s="13">
+        <v>4</v>
+      </c>
+      <c r="CG4" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH4" s="13">
+        <v>0</v>
+      </c>
+      <c r="CI4" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ4" s="13">
+        <v>0</v>
+      </c>
+      <c r="CK4" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="I5" s="13">
+        <v>9</v>
+      </c>
+      <c r="J5" s="13">
+        <v>9</v>
+      </c>
+      <c r="K5" s="13">
+        <v>7</v>
+      </c>
+      <c r="L5" s="13">
+        <v>9</v>
+      </c>
       <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
+      <c r="N5" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+      <c r="Q5" s="13">
+        <v>9</v>
+      </c>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
+      <c r="V5" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
+      <c r="Y5" s="13">
+        <v>9</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>9</v>
+      </c>
       <c r="AA5" s="13"/>
       <c r="AB5" s="13"/>
       <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
+      <c r="AD5" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
       <c r="AG5" s="13"/>
@@ -1408,14 +2201,20 @@
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
       <c r="AO5" s="13"/>
-      <c r="AP5" s="13"/>
+      <c r="AP5" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="AQ5" s="13"/>
       <c r="AR5" s="13"/>
       <c r="AS5" s="13"/>
       <c r="AT5" s="13"/>
       <c r="AU5" s="13"/>
-      <c r="AV5" s="13"/>
-      <c r="AW5" s="13"/>
+      <c r="AV5" s="13">
+        <v>9</v>
+      </c>
+      <c r="AW5" s="13">
+        <v>7</v>
+      </c>
       <c r="AX5" s="13"/>
       <c r="AY5" s="13"/>
       <c r="AZ5" s="13"/>
@@ -1423,11 +2222,19 @@
       <c r="BB5" s="13"/>
       <c r="BC5" s="13"/>
       <c r="BD5" s="13"/>
-      <c r="BE5" s="13"/>
-      <c r="BF5" s="13"/>
-      <c r="BG5" s="13"/>
+      <c r="BE5" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BF5" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BG5" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="BH5" s="13"/>
-      <c r="BI5" s="13"/>
+      <c r="BI5" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="BJ5" s="13"/>
       <c r="BK5" s="13"/>
       <c r="BL5" s="13"/>
@@ -1444,38 +2251,75 @@
       <c r="BW5" s="13"/>
       <c r="BX5" s="13"/>
       <c r="BY5" s="13"/>
-      <c r="BZ5" s="13"/>
-      <c r="CA5" s="13"/>
-      <c r="CB5" s="13"/>
-      <c r="CC5" s="13"/>
+      <c r="BZ5" s="13">
+        <v>9</v>
+      </c>
+      <c r="CA5" s="13">
+        <v>9</v>
+      </c>
+      <c r="CB5" s="13">
+        <v>8</v>
+      </c>
+      <c r="CC5" s="13">
+        <v>8</v>
+      </c>
       <c r="CD5" s="13"/>
-      <c r="CE5" s="13"/>
+      <c r="CE5" s="13">
+        <v>8</v>
+      </c>
       <c r="CF5" s="13"/>
       <c r="CG5" s="13"/>
-      <c r="CH5" s="16"/>
+      <c r="CH5" s="13"/>
+      <c r="CI5" s="13"/>
+      <c r="CJ5" s="13"/>
+      <c r="CK5" s="16"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+    <row r="6" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="17">
+        <v>8</v>
+      </c>
+      <c r="H6" s="17">
+        <v>7</v>
+      </c>
+      <c r="I6" s="17">
+        <v>8</v>
+      </c>
+      <c r="J6" s="17">
+        <v>6</v>
+      </c>
+      <c r="K6" s="17">
+        <v>7</v>
+      </c>
+      <c r="L6" s="17">
+        <v>8</v>
+      </c>
       <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
+      <c r="N6" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
+      <c r="Q6" s="17">
+        <v>8</v>
+      </c>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
@@ -1483,10 +2327,18 @@
       <c r="V6" s="17"/>
       <c r="W6" s="17"/>
       <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
+      <c r="Y6" s="17">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="17">
+        <v>9</v>
+      </c>
+      <c r="AA6" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB6" s="17" t="s">
+        <v>94</v>
+      </c>
       <c r="AC6" s="17"/>
       <c r="AD6" s="17"/>
       <c r="AE6" s="17"/>
@@ -1496,22 +2348,40 @@
       <c r="AI6" s="17"/>
       <c r="AJ6" s="17"/>
       <c r="AK6" s="17"/>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
+      <c r="AL6" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM6" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="AN6" s="17"/>
-      <c r="AO6" s="17"/>
+      <c r="AO6" s="17">
+        <v>9</v>
+      </c>
       <c r="AP6" s="17"/>
       <c r="AQ6" s="17"/>
       <c r="AR6" s="17"/>
-      <c r="AS6" s="17"/>
-      <c r="AT6" s="17"/>
+      <c r="AS6" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT6" s="17" t="s">
+        <v>94</v>
+      </c>
       <c r="AU6" s="17"/>
-      <c r="AV6" s="17"/>
-      <c r="AW6" s="17"/>
+      <c r="AV6" s="17">
+        <v>9</v>
+      </c>
+      <c r="AW6" s="17">
+        <v>8</v>
+      </c>
       <c r="AX6" s="17"/>
-      <c r="AY6" s="17"/>
+      <c r="AY6" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="AZ6" s="17"/>
-      <c r="BA6" s="17"/>
+      <c r="BA6" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BB6" s="17"/>
       <c r="BC6" s="17"/>
       <c r="BD6" s="17"/>
@@ -1524,7 +2394,9 @@
       <c r="BK6" s="17"/>
       <c r="BL6" s="17"/>
       <c r="BM6" s="17"/>
-      <c r="BN6" s="17"/>
+      <c r="BN6" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BO6" s="17"/>
       <c r="BP6" s="17"/>
       <c r="BQ6" s="17"/>
@@ -1544,24 +2416,37 @@
       <c r="CE6" s="17"/>
       <c r="CF6" s="17"/>
       <c r="CG6" s="17"/>
-      <c r="CH6" s="18"/>
+      <c r="CH6" s="17"/>
+      <c r="CI6" s="17"/>
+      <c r="CJ6" s="17"/>
+      <c r="CK6" s="18"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+    <row r="7" spans="1:89" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="10"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="J7" s="13">
+        <v>8</v>
+      </c>
+      <c r="K7" s="13">
+        <v>8</v>
+      </c>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
@@ -1581,10 +2466,18 @@
       <c r="AB7" s="13"/>
       <c r="AC7" s="13"/>
       <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
+      <c r="AE7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH7" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="AI7" s="13"/>
       <c r="AJ7" s="13"/>
       <c r="AK7" s="13"/>
@@ -1596,9 +2489,15 @@
       <c r="AQ7" s="13"/>
       <c r="AR7" s="13"/>
       <c r="AS7" s="13"/>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
-      <c r="AV7" s="13"/>
+      <c r="AT7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV7" s="13">
+        <v>9</v>
+      </c>
       <c r="AW7" s="13"/>
       <c r="AX7" s="13"/>
       <c r="AY7" s="13"/>
@@ -1626,7 +2525,9 @@
       <c r="BU7" s="13"/>
       <c r="BV7" s="13"/>
       <c r="BW7" s="13"/>
-      <c r="BX7" s="13"/>
+      <c r="BX7" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="BY7" s="13"/>
       <c r="BZ7" s="13"/>
       <c r="CA7" s="13"/>
@@ -1636,30 +2537,49 @@
       <c r="CE7" s="13"/>
       <c r="CF7" s="13"/>
       <c r="CG7" s="13"/>
-      <c r="CH7" s="16"/>
+      <c r="CH7" s="13"/>
+      <c r="CI7" s="13"/>
+      <c r="CJ7" s="13"/>
+      <c r="CK7" s="16"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+    <row r="8" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="11">
+        <v>77.596199999999996</v>
+      </c>
+      <c r="G8" s="19">
+        <v>9</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="K8" s="13">
+        <v>9</v>
+      </c>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
+      <c r="N8" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="Q8" s="13">
+        <v>8</v>
+      </c>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
@@ -1667,15 +2587,25 @@
       <c r="V8" s="13"/>
       <c r="W8" s="13"/>
       <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
+      <c r="Y8" s="13">
+        <v>8</v>
+      </c>
+      <c r="Z8" s="13">
+        <v>9</v>
+      </c>
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
       <c r="AC8" s="13"/>
       <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
+      <c r="AE8" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF8" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG8" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="AH8" s="13"/>
       <c r="AI8" s="13"/>
       <c r="AJ8" s="13"/>
@@ -1687,11 +2617,17 @@
       <c r="AP8" s="13"/>
       <c r="AQ8" s="13"/>
       <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
+      <c r="AS8" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="AT8" s="13"/>
       <c r="AU8" s="13"/>
-      <c r="AV8" s="13"/>
-      <c r="AW8" s="13"/>
+      <c r="AV8" s="13">
+        <v>7</v>
+      </c>
+      <c r="AW8" s="13">
+        <v>8</v>
+      </c>
       <c r="AX8" s="13"/>
       <c r="AY8" s="13"/>
       <c r="AZ8" s="13"/>
@@ -1701,8 +2637,12 @@
       <c r="BD8" s="13"/>
       <c r="BE8" s="13"/>
       <c r="BF8" s="13"/>
-      <c r="BG8" s="13"/>
-      <c r="BH8" s="13"/>
+      <c r="BG8" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BH8" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="BI8" s="13"/>
       <c r="BJ8" s="13"/>
       <c r="BK8" s="13"/>
@@ -1717,30 +2657,59 @@
       <c r="BT8" s="13"/>
       <c r="BU8" s="13"/>
       <c r="BV8" s="13"/>
-      <c r="BW8" s="13"/>
+      <c r="BW8" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="BX8" s="13"/>
       <c r="BY8" s="13"/>
       <c r="BZ8" s="13"/>
       <c r="CA8" s="13"/>
       <c r="CB8" s="13"/>
-      <c r="CC8" s="13"/>
-      <c r="CD8" s="13"/>
-      <c r="CE8" s="13"/>
-      <c r="CF8" s="13"/>
-      <c r="CG8" s="13"/>
-      <c r="CH8" s="16"/>
+      <c r="CC8" s="13">
+        <v>1</v>
+      </c>
+      <c r="CD8" s="13">
+        <v>0</v>
+      </c>
+      <c r="CE8" s="13">
+        <v>1</v>
+      </c>
+      <c r="CF8" s="13">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH8" s="13">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ8" s="13">
+        <v>0</v>
+      </c>
+      <c r="CK8" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+    <row r="9" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="10"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
@@ -1785,8 +2754,12 @@
       <c r="AV9" s="17"/>
       <c r="AW9" s="17"/>
       <c r="AX9" s="17"/>
-      <c r="AY9" s="17"/>
-      <c r="AZ9" s="17"/>
+      <c r="AY9" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ9" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BA9" s="17"/>
       <c r="BB9" s="17"/>
       <c r="BC9" s="17"/>
@@ -1820,74 +2793,129 @@
       <c r="CE9" s="17"/>
       <c r="CF9" s="17"/>
       <c r="CG9" s="17"/>
-      <c r="CH9" s="18"/>
+      <c r="CH9" s="17"/>
+      <c r="CI9" s="17"/>
+      <c r="CJ9" s="17"/>
+      <c r="CK9" s="18"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+    <row r="10" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="11">
+        <v>77.651499999999999</v>
+      </c>
+      <c r="G10" s="19"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="J10" s="13">
+        <v>9</v>
+      </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
+      <c r="N10" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
+      <c r="S10" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
+      <c r="W10" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
+      <c r="Z10" s="13">
+        <v>9</v>
+      </c>
+      <c r="AA10" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="AB10" s="13"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
       <c r="AE10" s="13"/>
       <c r="AF10" s="13"/>
       <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13"/>
+      <c r="AH10" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI10" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ10" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="AK10" s="13"/>
       <c r="AL10" s="13"/>
       <c r="AM10" s="13"/>
-      <c r="AN10" s="13"/>
+      <c r="AN10" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="AO10" s="13"/>
       <c r="AP10" s="13"/>
       <c r="AQ10" s="13"/>
       <c r="AR10" s="13"/>
-      <c r="AS10" s="13"/>
+      <c r="AS10" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="AT10" s="13"/>
       <c r="AU10" s="13"/>
-      <c r="AV10" s="13"/>
-      <c r="AW10" s="13"/>
+      <c r="AV10" s="13">
+        <v>9</v>
+      </c>
+      <c r="AW10" s="13">
+        <v>6</v>
+      </c>
       <c r="AX10" s="13"/>
-      <c r="AY10" s="13"/>
-      <c r="AZ10" s="13"/>
-      <c r="BA10" s="13"/>
+      <c r="AY10" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ10" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BA10" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="BB10" s="13"/>
       <c r="BC10" s="13"/>
-      <c r="BD10" s="13"/>
+      <c r="BD10" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="BE10" s="13"/>
       <c r="BF10" s="13"/>
-      <c r="BG10" s="13"/>
-      <c r="BH10" s="13"/>
-      <c r="BI10" s="13"/>
+      <c r="BG10" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH10" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BI10" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="BJ10" s="13"/>
       <c r="BK10" s="13"/>
       <c r="BL10" s="13"/>
@@ -1896,15 +2924,21 @@
       <c r="BO10" s="13"/>
       <c r="BP10" s="13"/>
       <c r="BQ10" s="13"/>
-      <c r="BR10" s="13"/>
+      <c r="BR10" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="BS10" s="13"/>
       <c r="BT10" s="13"/>
       <c r="BU10" s="13"/>
       <c r="BV10" s="13"/>
       <c r="BW10" s="13"/>
       <c r="BX10" s="13"/>
-      <c r="BY10" s="13"/>
-      <c r="BZ10" s="13"/>
+      <c r="BY10" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BZ10" s="13">
+        <v>9</v>
+      </c>
       <c r="CA10" s="13"/>
       <c r="CB10" s="13"/>
       <c r="CC10" s="13"/>
@@ -1912,20 +2946,37 @@
       <c r="CE10" s="13"/>
       <c r="CF10" s="13"/>
       <c r="CG10" s="13"/>
-      <c r="CH10" s="16"/>
+      <c r="CH10" s="13">
+        <v>9</v>
+      </c>
+      <c r="CI10" s="13"/>
+      <c r="CJ10" s="13">
+        <v>4</v>
+      </c>
+      <c r="CK10" s="16">
+        <v>5</v>
+      </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+    <row r="11" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="11">
+        <v>96.012299999999996</v>
+      </c>
+      <c r="G11" s="20"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -1935,7 +2986,9 @@
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
       <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="Q11" s="17">
+        <v>4</v>
+      </c>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
@@ -1967,7 +3020,9 @@
       <c r="AT11" s="17"/>
       <c r="AU11" s="17"/>
       <c r="AV11" s="17"/>
-      <c r="AW11" s="17"/>
+      <c r="AW11" s="17">
+        <v>8</v>
+      </c>
       <c r="AX11" s="17"/>
       <c r="AY11" s="17"/>
       <c r="AZ11" s="17"/>
@@ -1977,9 +3032,13 @@
       <c r="BD11" s="17"/>
       <c r="BE11" s="17"/>
       <c r="BF11" s="17"/>
-      <c r="BG11" s="17"/>
+      <c r="BG11" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="BH11" s="17"/>
-      <c r="BI11" s="17"/>
+      <c r="BI11" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BJ11" s="17"/>
       <c r="BK11" s="17"/>
       <c r="BL11" s="17"/>
@@ -1996,139 +3055,309 @@
       <c r="BW11" s="17"/>
       <c r="BX11" s="17"/>
       <c r="BY11" s="17"/>
-      <c r="BZ11" s="17"/>
+      <c r="BZ11" s="17">
+        <v>6</v>
+      </c>
       <c r="CA11" s="17"/>
       <c r="CB11" s="17"/>
       <c r="CC11" s="17"/>
-      <c r="CD11" s="17"/>
+      <c r="CD11" s="17">
+        <v>9</v>
+      </c>
       <c r="CE11" s="17"/>
       <c r="CF11" s="17"/>
       <c r="CG11" s="17"/>
-      <c r="CH11" s="18"/>
+      <c r="CH11" s="17">
+        <v>0</v>
+      </c>
+      <c r="CI11" s="17"/>
+      <c r="CJ11" s="17"/>
+      <c r="CK11" s="18"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
+    <row r="12" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="10">
+        <v>52.7014</v>
+      </c>
+      <c r="G12" s="17">
+        <v>6</v>
+      </c>
+      <c r="H12" s="17">
+        <v>5</v>
+      </c>
+      <c r="I12" s="17">
+        <v>6</v>
+      </c>
+      <c r="J12" s="17">
+        <v>6</v>
+      </c>
+      <c r="K12" s="17">
+        <v>5</v>
+      </c>
+      <c r="L12" s="17">
+        <v>6</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="Q12" s="17">
+        <v>9</v>
+      </c>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
       <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
+      <c r="V12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="W12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="X12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y12" s="17">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="17">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB12" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC12" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD12" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="AE12" s="17"/>
       <c r="AF12" s="17"/>
       <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
+      <c r="AH12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK12" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="17"/>
+      <c r="AM12" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN12" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="AO12" s="17"/>
-      <c r="AP12" s="17"/>
+      <c r="AP12" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="AQ12" s="17"/>
       <c r="AR12" s="17"/>
       <c r="AS12" s="17"/>
-      <c r="AT12" s="17"/>
+      <c r="AT12" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="AU12" s="17"/>
-      <c r="AV12" s="17"/>
-      <c r="AW12" s="17"/>
+      <c r="AV12" s="17">
+        <v>5</v>
+      </c>
+      <c r="AW12" s="17">
+        <v>5</v>
+      </c>
       <c r="AX12" s="17"/>
       <c r="AY12" s="17"/>
-      <c r="AZ12" s="17"/>
+      <c r="AZ12" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="BA12" s="17"/>
-      <c r="BB12" s="17"/>
-      <c r="BC12" s="17"/>
+      <c r="BB12" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC12" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="BD12" s="17"/>
-      <c r="BE12" s="17"/>
-      <c r="BF12" s="17"/>
-      <c r="BG12" s="17"/>
-      <c r="BH12" s="17"/>
-      <c r="BI12" s="17"/>
-      <c r="BJ12" s="17"/>
-      <c r="BK12" s="17"/>
-      <c r="BL12" s="17"/>
-      <c r="BM12" s="17"/>
+      <c r="BE12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BF12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BG12" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BH12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BI12" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BJ12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BL12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM12" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BN12" s="17"/>
       <c r="BO12" s="17"/>
       <c r="BP12" s="17"/>
       <c r="BQ12" s="17"/>
-      <c r="BR12" s="17"/>
+      <c r="BR12" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BS12" s="17"/>
-      <c r="BT12" s="17"/>
-      <c r="BU12" s="17"/>
-      <c r="BV12" s="17"/>
-      <c r="BW12" s="17"/>
-      <c r="BX12" s="17"/>
+      <c r="BT12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BU12" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BV12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BW12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BX12" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BY12" s="17"/>
-      <c r="BZ12" s="17"/>
-      <c r="CA12" s="17"/>
-      <c r="CB12" s="17"/>
-      <c r="CC12" s="17"/>
+      <c r="BZ12" s="17">
+        <v>7</v>
+      </c>
+      <c r="CA12" s="17">
+        <v>7</v>
+      </c>
+      <c r="CB12" s="17">
+        <v>8</v>
+      </c>
+      <c r="CC12" s="17">
+        <v>5</v>
+      </c>
       <c r="CD12" s="17"/>
-      <c r="CE12" s="17"/>
-      <c r="CF12" s="17"/>
-      <c r="CG12" s="17"/>
-      <c r="CH12" s="18"/>
+      <c r="CE12" s="17">
+        <v>5</v>
+      </c>
+      <c r="CF12" s="17">
+        <v>0</v>
+      </c>
+      <c r="CG12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH12" s="17">
+        <v>0</v>
+      </c>
+      <c r="CI12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ12" s="17">
+        <v>0</v>
+      </c>
+      <c r="CK12" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
+      <c r="F13" s="10">
+        <v>75.687200000000004</v>
+      </c>
+      <c r="G13" s="17">
+        <v>9</v>
+      </c>
+      <c r="H13" s="17">
+        <v>9</v>
+      </c>
+      <c r="I13" s="17">
+        <v>8</v>
+      </c>
+      <c r="J13" s="17">
+        <v>8</v>
+      </c>
+      <c r="K13" s="17">
+        <v>8</v>
+      </c>
+      <c r="L13" s="17">
+        <v>9</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
+      <c r="V13" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="W13" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
+      <c r="Y13" s="17">
+        <v>9</v>
+      </c>
+      <c r="Z13" s="17">
+        <v>8</v>
+      </c>
       <c r="AA13" s="17"/>
       <c r="AB13" s="17"/>
       <c r="AC13" s="17"/>
@@ -2136,10 +3365,18 @@
       <c r="AE13" s="17"/>
       <c r="AF13" s="17"/>
       <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
+      <c r="AH13" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI13" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ13" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK13" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="AL13" s="17"/>
       <c r="AM13" s="17"/>
       <c r="AN13" s="17"/>
@@ -2150,8 +3387,12 @@
       <c r="AS13" s="17"/>
       <c r="AT13" s="17"/>
       <c r="AU13" s="17"/>
-      <c r="AV13" s="17"/>
-      <c r="AW13" s="17"/>
+      <c r="AV13" s="17">
+        <v>9</v>
+      </c>
+      <c r="AW13" s="17">
+        <v>9</v>
+      </c>
       <c r="AX13" s="17"/>
       <c r="AY13" s="17"/>
       <c r="AZ13" s="17"/>
@@ -2160,139 +3401,313 @@
       <c r="BC13" s="17"/>
       <c r="BD13" s="17"/>
       <c r="BE13" s="17"/>
-      <c r="BF13" s="17"/>
+      <c r="BF13" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BG13" s="17"/>
-      <c r="BH13" s="17"/>
+      <c r="BH13" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BI13" s="17"/>
-      <c r="BJ13" s="17"/>
+      <c r="BJ13" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BK13" s="17"/>
-      <c r="BL13" s="17"/>
-      <c r="BM13" s="17"/>
+      <c r="BL13" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM13" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BN13" s="17"/>
       <c r="BO13" s="17"/>
       <c r="BP13" s="17"/>
       <c r="BQ13" s="17"/>
-      <c r="BR13" s="17"/>
+      <c r="BR13" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BS13" s="17"/>
       <c r="BT13" s="17"/>
       <c r="BU13" s="17"/>
       <c r="BV13" s="17"/>
       <c r="BW13" s="17"/>
-      <c r="BX13" s="17"/>
+      <c r="BX13" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BY13" s="17"/>
-      <c r="BZ13" s="17"/>
-      <c r="CA13" s="17"/>
-      <c r="CB13" s="17"/>
+      <c r="BZ13" s="17">
+        <v>7</v>
+      </c>
+      <c r="CA13" s="17">
+        <v>7</v>
+      </c>
+      <c r="CB13" s="17">
+        <v>7</v>
+      </c>
       <c r="CC13" s="17"/>
-      <c r="CD13" s="17"/>
+      <c r="CD13" s="17">
+        <v>0</v>
+      </c>
       <c r="CE13" s="17"/>
-      <c r="CF13" s="17"/>
-      <c r="CG13" s="17"/>
-      <c r="CH13" s="18"/>
+      <c r="CF13" s="17">
+        <v>0</v>
+      </c>
+      <c r="CG13" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH13" s="17">
+        <v>0</v>
+      </c>
+      <c r="CI13" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ13" s="17">
+        <v>0</v>
+      </c>
+      <c r="CK13" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+    <row r="14" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="13">
+        <v>5</v>
+      </c>
+      <c r="H14" s="13">
+        <v>6</v>
+      </c>
+      <c r="I14" s="13">
+        <v>2</v>
+      </c>
+      <c r="J14" s="13">
+        <v>4</v>
+      </c>
+      <c r="K14" s="13">
+        <v>6</v>
+      </c>
+      <c r="L14" s="13">
+        <v>6</v>
+      </c>
       <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
+      <c r="N14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>6</v>
+      </c>
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
+      <c r="V14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="X14" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB14" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
+      <c r="AD14" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="AE14" s="13"/>
       <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
+      <c r="AG14" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="AH14" s="13"/>
       <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="13"/>
-      <c r="AO14" s="13"/>
-      <c r="AP14" s="13"/>
-      <c r="AQ14" s="13"/>
+      <c r="AJ14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO14" s="13">
+        <v>7</v>
+      </c>
+      <c r="AP14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ14" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="AR14" s="13"/>
-      <c r="AS14" s="13"/>
+      <c r="AS14" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="AT14" s="13"/>
-      <c r="AU14" s="13"/>
-      <c r="AV14" s="13"/>
-      <c r="AW14" s="13"/>
-      <c r="AX14" s="13"/>
-      <c r="AY14" s="13"/>
-      <c r="AZ14" s="13"/>
+      <c r="AU14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV14" s="13">
+        <v>3</v>
+      </c>
+      <c r="AW14" s="13">
+        <v>3</v>
+      </c>
+      <c r="AX14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ14" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="BA14" s="13"/>
       <c r="BB14" s="13"/>
       <c r="BC14" s="13"/>
       <c r="BD14" s="13"/>
-      <c r="BE14" s="13"/>
+      <c r="BE14" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="BF14" s="13"/>
       <c r="BG14" s="13"/>
-      <c r="BH14" s="13"/>
-      <c r="BI14" s="13"/>
-      <c r="BJ14" s="13"/>
-      <c r="BK14" s="13"/>
-      <c r="BL14" s="13"/>
-      <c r="BM14" s="13"/>
-      <c r="BN14" s="13"/>
-      <c r="BO14" s="13"/>
-      <c r="BP14" s="13"/>
+      <c r="BH14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BI14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BJ14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BL14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BO14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BP14" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="BQ14" s="13"/>
-      <c r="BR14" s="13"/>
+      <c r="BR14" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="BS14" s="13"/>
       <c r="BT14" s="13"/>
-      <c r="BU14" s="13"/>
-      <c r="BV14" s="13"/>
+      <c r="BU14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV14" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="BW14" s="13"/>
-      <c r="BX14" s="13"/>
-      <c r="BY14" s="13"/>
-      <c r="BZ14" s="13"/>
-      <c r="CA14" s="13"/>
-      <c r="CB14" s="13"/>
-      <c r="CC14" s="13"/>
-      <c r="CD14" s="13"/>
-      <c r="CE14" s="13"/>
-      <c r="CF14" s="13"/>
-      <c r="CG14" s="13"/>
-      <c r="CH14" s="16"/>
+      <c r="BX14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BZ14" s="13">
+        <v>4</v>
+      </c>
+      <c r="CA14" s="13">
+        <v>6</v>
+      </c>
+      <c r="CB14" s="13">
+        <v>6</v>
+      </c>
+      <c r="CC14" s="13">
+        <v>3</v>
+      </c>
+      <c r="CD14" s="13">
+        <v>2</v>
+      </c>
+      <c r="CE14" s="13">
+        <v>1</v>
+      </c>
+      <c r="CF14" s="13">
+        <v>1</v>
+      </c>
+      <c r="CG14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH14" s="13">
+        <v>0</v>
+      </c>
+      <c r="CI14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ14" s="13">
+        <v>0</v>
+      </c>
+      <c r="CK14" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+    <row r="15" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="10"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -2363,28 +3778,43 @@
       <c r="BV15" s="13"/>
       <c r="BW15" s="13"/>
       <c r="BX15" s="13"/>
-      <c r="BY15" s="13"/>
+      <c r="BY15" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="BZ15" s="13"/>
-      <c r="CA15" s="13"/>
+      <c r="CA15" s="13">
+        <v>5</v>
+      </c>
       <c r="CB15" s="13"/>
-      <c r="CC15" s="13"/>
+      <c r="CC15" s="13">
+        <v>5</v>
+      </c>
       <c r="CD15" s="13"/>
       <c r="CE15" s="13"/>
       <c r="CF15" s="13"/>
       <c r="CG15" s="13"/>
-      <c r="CH15" s="16"/>
+      <c r="CH15" s="13"/>
+      <c r="CI15" s="13"/>
+      <c r="CJ15" s="13"/>
+      <c r="CK15" s="16"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
+    <row r="16" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="10"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -2464,117 +3894,291 @@
       <c r="CE16" s="17"/>
       <c r="CF16" s="17"/>
       <c r="CG16" s="17"/>
-      <c r="CH16" s="18"/>
+      <c r="CH16" s="17"/>
+      <c r="CI16" s="17"/>
+      <c r="CJ16" s="17"/>
+      <c r="CK16" s="18"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+    <row r="17" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="10">
+        <v>47.535499999999999</v>
+      </c>
+      <c r="G17" s="13">
+        <v>7</v>
+      </c>
+      <c r="H17" s="13">
+        <v>6</v>
+      </c>
+      <c r="I17" s="13">
+        <v>6</v>
+      </c>
+      <c r="J17" s="13">
+        <v>6</v>
+      </c>
+      <c r="K17" s="13">
+        <v>5</v>
+      </c>
+      <c r="L17" s="13">
+        <v>5</v>
+      </c>
       <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
+      <c r="N17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>6</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
+      <c r="U17" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
+      <c r="W17" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="13"/>
+      <c r="Y17" s="13">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="13">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB17" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC17" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD17" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE17" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF17" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG17" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH17" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI17" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ17" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="AK17" s="13"/>
-      <c r="AL17" s="13"/>
-      <c r="AM17" s="13"/>
-      <c r="AN17" s="13"/>
-      <c r="AO17" s="13"/>
-      <c r="AP17" s="13"/>
-      <c r="AQ17" s="13"/>
-      <c r="AR17" s="13"/>
-      <c r="AS17" s="13"/>
-      <c r="AT17" s="13"/>
-      <c r="AU17" s="13"/>
-      <c r="AV17" s="13"/>
-      <c r="AW17" s="13"/>
-      <c r="AX17" s="13"/>
-      <c r="AY17" s="13"/>
-      <c r="AZ17" s="13"/>
-      <c r="BA17" s="13"/>
+      <c r="AL17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM17" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN17" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO17" s="13">
+        <v>5</v>
+      </c>
+      <c r="AP17" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR17" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS17" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT17" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU17" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV17" s="13">
+        <v>5</v>
+      </c>
+      <c r="AW17" s="13">
+        <v>5</v>
+      </c>
+      <c r="AX17" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY17" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ17" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA17" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="BB17" s="13"/>
       <c r="BC17" s="13"/>
       <c r="BD17" s="13"/>
-      <c r="BE17" s="13"/>
-      <c r="BF17" s="13"/>
-      <c r="BG17" s="13"/>
-      <c r="BH17" s="13"/>
-      <c r="BI17" s="13"/>
-      <c r="BJ17" s="13"/>
-      <c r="BK17" s="13"/>
-      <c r="BL17" s="13"/>
-      <c r="BM17" s="13"/>
-      <c r="BN17" s="13"/>
-      <c r="BO17" s="13"/>
-      <c r="BP17" s="13"/>
+      <c r="BE17" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BF17" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG17" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH17" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="BI17" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BJ17" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK17" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL17" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM17" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN17" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO17" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BP17" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="BQ17" s="13"/>
-      <c r="BR17" s="13"/>
-      <c r="BS17" s="13"/>
+      <c r="BR17" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS17" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="BT17" s="13"/>
       <c r="BU17" s="13"/>
-      <c r="BV17" s="13"/>
-      <c r="BW17" s="13"/>
-      <c r="BX17" s="13"/>
-      <c r="BY17" s="13"/>
-      <c r="BZ17" s="13"/>
-      <c r="CA17" s="13"/>
-      <c r="CB17" s="13"/>
-      <c r="CC17" s="13"/>
-      <c r="CD17" s="13"/>
-      <c r="CE17" s="13"/>
-      <c r="CF17" s="13"/>
-      <c r="CG17" s="13"/>
-      <c r="CH17" s="16"/>
+      <c r="BV17" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="BW17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BX17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BZ17" s="13">
+        <v>0</v>
+      </c>
+      <c r="CA17" s="13">
+        <v>0</v>
+      </c>
+      <c r="CB17" s="13">
+        <v>0</v>
+      </c>
+      <c r="CC17" s="13">
+        <v>0</v>
+      </c>
+      <c r="CD17" s="13">
+        <v>0</v>
+      </c>
+      <c r="CE17" s="13">
+        <v>0</v>
+      </c>
+      <c r="CF17" s="13">
+        <v>0</v>
+      </c>
+      <c r="CG17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH17" s="13">
+        <v>0</v>
+      </c>
+      <c r="CI17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ17" s="13">
+        <v>0</v>
+      </c>
+      <c r="CK17" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+    <row r="18" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="17">
+        <v>8</v>
+      </c>
+      <c r="H18" s="17">
+        <v>9</v>
+      </c>
+      <c r="I18" s="17">
+        <v>9</v>
+      </c>
+      <c r="J18" s="17">
+        <v>9</v>
+      </c>
       <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
+      <c r="L18" s="17">
+        <v>9</v>
+      </c>
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
@@ -2587,37 +4191,55 @@
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
       <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
+      <c r="Y18" s="17">
+        <v>9</v>
+      </c>
       <c r="Z18" s="17"/>
       <c r="AA18" s="17"/>
       <c r="AB18" s="17"/>
       <c r="AC18" s="17"/>
       <c r="AD18" s="17"/>
       <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
+      <c r="AF18" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="AG18" s="17"/>
       <c r="AH18" s="17"/>
       <c r="AI18" s="17"/>
       <c r="AJ18" s="17"/>
       <c r="AK18" s="17"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="17"/>
+      <c r="AL18" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM18" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="AN18" s="17"/>
-      <c r="AO18" s="17"/>
+      <c r="AO18" s="17">
+        <v>9</v>
+      </c>
       <c r="AP18" s="17"/>
       <c r="AQ18" s="17"/>
       <c r="AR18" s="17"/>
-      <c r="AS18" s="17"/>
+      <c r="AS18" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="AT18" s="17"/>
       <c r="AU18" s="17"/>
-      <c r="AV18" s="17"/>
-      <c r="AW18" s="17"/>
+      <c r="AV18" s="17">
+        <v>8</v>
+      </c>
+      <c r="AW18" s="17">
+        <v>8</v>
+      </c>
       <c r="AX18" s="17"/>
       <c r="AY18" s="17"/>
       <c r="AZ18" s="17"/>
       <c r="BA18" s="17"/>
       <c r="BB18" s="17"/>
-      <c r="BC18" s="17"/>
+      <c r="BC18" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BD18" s="17"/>
       <c r="BE18" s="17"/>
       <c r="BF18" s="17"/>
@@ -2629,14 +4251,20 @@
       <c r="BL18" s="17"/>
       <c r="BM18" s="17"/>
       <c r="BN18" s="17"/>
-      <c r="BO18" s="17"/>
-      <c r="BP18" s="17"/>
+      <c r="BO18" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BP18" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BQ18" s="17"/>
       <c r="BR18" s="17"/>
       <c r="BS18" s="17"/>
       <c r="BT18" s="17"/>
       <c r="BU18" s="17"/>
-      <c r="BV18" s="17"/>
+      <c r="BV18" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BW18" s="17"/>
       <c r="BX18" s="17"/>
       <c r="BY18" s="17"/>
@@ -2645,22 +4273,37 @@
       <c r="CB18" s="17"/>
       <c r="CC18" s="17"/>
       <c r="CD18" s="17"/>
-      <c r="CE18" s="17"/>
+      <c r="CE18" s="17">
+        <v>9</v>
+      </c>
       <c r="CF18" s="17"/>
       <c r="CG18" s="17"/>
-      <c r="CH18" s="18"/>
+      <c r="CH18" s="17"/>
+      <c r="CI18" s="17"/>
+      <c r="CJ18" s="17">
+        <v>8</v>
+      </c>
+      <c r="CK18" s="18">
+        <v>8</v>
+      </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+    <row r="19" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="12"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -2686,7 +4329,9 @@
       <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
       <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
+      <c r="AF19" s="17" t="s">
+        <v>94</v>
+      </c>
       <c r="AG19" s="17"/>
       <c r="AH19" s="17"/>
       <c r="AI19" s="17"/>
@@ -2697,12 +4342,16 @@
       <c r="AN19" s="17"/>
       <c r="AO19" s="17"/>
       <c r="AP19" s="17"/>
-      <c r="AQ19" s="17"/>
+      <c r="AQ19" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="AR19" s="17"/>
       <c r="AS19" s="17"/>
       <c r="AT19" s="17"/>
       <c r="AU19" s="17"/>
-      <c r="AV19" s="17"/>
+      <c r="AV19" s="17">
+        <v>9</v>
+      </c>
       <c r="AW19" s="17"/>
       <c r="AX19" s="17"/>
       <c r="AY19" s="17"/>
@@ -2739,63 +4388,120 @@
       <c r="CD19" s="17"/>
       <c r="CE19" s="17"/>
       <c r="CF19" s="17"/>
-      <c r="CG19" s="17"/>
-      <c r="CH19" s="18"/>
+      <c r="CG19" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH19" s="17">
+        <v>5</v>
+      </c>
+      <c r="CI19" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ19" s="17">
+        <v>0</v>
+      </c>
+      <c r="CK19" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
+    <row r="20" spans="1:89" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="10">
+        <v>76.746399999999994</v>
+      </c>
+      <c r="G20" s="17">
+        <v>8</v>
+      </c>
+      <c r="H20" s="17">
+        <v>8</v>
+      </c>
       <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
+      <c r="J20" s="17">
+        <v>9</v>
+      </c>
+      <c r="K20" s="17">
+        <v>8</v>
+      </c>
+      <c r="L20" s="17">
+        <v>8</v>
+      </c>
       <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
+      <c r="N20" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="O20" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="Q20" s="17">
+        <v>9</v>
+      </c>
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
       <c r="T20" s="17"/>
       <c r="U20" s="17"/>
       <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
+      <c r="W20" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="X20" s="17"/>
       <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
+      <c r="Z20" s="17">
+        <v>9</v>
+      </c>
       <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
+      <c r="AB20" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
+      <c r="AD20" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="AE20" s="17"/>
       <c r="AF20" s="17"/>
       <c r="AG20" s="17"/>
-      <c r="AH20" s="17"/>
+      <c r="AH20" s="17">
+        <v>7</v>
+      </c>
       <c r="AI20" s="17"/>
       <c r="AJ20" s="17"/>
-      <c r="AK20" s="17"/>
+      <c r="AK20" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="AL20" s="17"/>
       <c r="AM20" s="17"/>
       <c r="AN20" s="17"/>
       <c r="AO20" s="17"/>
       <c r="AP20" s="17"/>
-      <c r="AQ20" s="17"/>
+      <c r="AQ20" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="AR20" s="17"/>
       <c r="AS20" s="17"/>
       <c r="AT20" s="17"/>
-      <c r="AU20" s="17"/>
-      <c r="AV20" s="17"/>
-      <c r="AW20" s="17"/>
+      <c r="AU20" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV20" s="17">
+        <v>8</v>
+      </c>
+      <c r="AW20" s="17">
+        <v>7</v>
+      </c>
       <c r="AX20" s="17"/>
       <c r="AY20" s="17"/>
       <c r="AZ20" s="17"/>
@@ -2805,13 +4511,25 @@
       <c r="BD20" s="17"/>
       <c r="BE20" s="17"/>
       <c r="BF20" s="17"/>
-      <c r="BG20" s="17"/>
-      <c r="BH20" s="17"/>
+      <c r="BG20" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BH20" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BI20" s="17"/>
-      <c r="BJ20" s="17"/>
-      <c r="BK20" s="17"/>
-      <c r="BL20" s="17"/>
-      <c r="BM20" s="17"/>
+      <c r="BJ20" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK20" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BL20" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM20" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BN20" s="17"/>
       <c r="BO20" s="17"/>
       <c r="BP20" s="17"/>
@@ -2822,49 +4540,110 @@
       <c r="BU20" s="17"/>
       <c r="BV20" s="17"/>
       <c r="BW20" s="17"/>
-      <c r="BX20" s="17"/>
+      <c r="BX20" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BY20" s="17"/>
-      <c r="BZ20" s="17"/>
-      <c r="CA20" s="17"/>
-      <c r="CB20" s="17"/>
-      <c r="CC20" s="17"/>
+      <c r="BZ20" s="17">
+        <v>9</v>
+      </c>
+      <c r="CA20" s="17">
+        <v>9</v>
+      </c>
+      <c r="CB20" s="17">
+        <v>9</v>
+      </c>
+      <c r="CC20" s="17">
+        <v>9</v>
+      </c>
       <c r="CD20" s="17"/>
-      <c r="CE20" s="17"/>
-      <c r="CF20" s="17"/>
-      <c r="CG20" s="17"/>
-      <c r="CH20" s="18"/>
+      <c r="CE20" s="17">
+        <v>9</v>
+      </c>
+      <c r="CF20" s="17">
+        <v>8</v>
+      </c>
+      <c r="CG20" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH20" s="17">
+        <v>0</v>
+      </c>
+      <c r="CI20" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ20" s="17">
+        <v>2</v>
+      </c>
+      <c r="CK20" s="18">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" s="12" t="s">
+    <row r="21" spans="1:89" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
+      <c r="B21" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="10">
+        <v>64.099500000000006</v>
+      </c>
+      <c r="G21" s="13">
+        <v>9</v>
+      </c>
+      <c r="H21" s="13">
+        <v>8</v>
+      </c>
+      <c r="I21" s="13">
+        <v>8</v>
+      </c>
+      <c r="J21" s="13">
+        <v>8</v>
+      </c>
+      <c r="K21" s="13">
+        <v>9</v>
+      </c>
       <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
+      <c r="M21" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="Q21" s="13">
+        <v>9</v>
+      </c>
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
+      <c r="T21" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
+      <c r="V21" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="W21" s="13"/>
       <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
+      <c r="Y21" s="13">
+        <v>9</v>
+      </c>
+      <c r="Z21" s="13">
+        <v>9</v>
+      </c>
       <c r="AA21" s="13"/>
       <c r="AB21" s="13"/>
       <c r="AC21" s="13"/>
@@ -2872,10 +4651,16 @@
       <c r="AE21" s="13"/>
       <c r="AF21" s="13"/>
       <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="13"/>
+      <c r="AH21" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI21" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="AJ21" s="13"/>
-      <c r="AK21" s="13"/>
+      <c r="AK21" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="AL21" s="13"/>
       <c r="AM21" s="13"/>
       <c r="AN21" s="13"/>
@@ -2884,10 +4669,16 @@
       <c r="AQ21" s="13"/>
       <c r="AR21" s="13"/>
       <c r="AS21" s="13"/>
-      <c r="AT21" s="13"/>
+      <c r="AT21" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="AU21" s="13"/>
-      <c r="AV21" s="13"/>
-      <c r="AW21" s="13"/>
+      <c r="AV21" s="13">
+        <v>9</v>
+      </c>
+      <c r="AW21" s="13">
+        <v>9</v>
+      </c>
       <c r="AX21" s="13"/>
       <c r="AY21" s="13"/>
       <c r="AZ21" s="13"/>
@@ -2896,145 +4687,313 @@
       <c r="BC21" s="13"/>
       <c r="BD21" s="13"/>
       <c r="BE21" s="13"/>
-      <c r="BF21" s="13"/>
-      <c r="BG21" s="13"/>
-      <c r="BH21" s="13"/>
+      <c r="BF21" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG21" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BH21" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="BI21" s="13"/>
-      <c r="BJ21" s="13"/>
-      <c r="BK21" s="13"/>
-      <c r="BL21" s="13"/>
-      <c r="BM21" s="13"/>
+      <c r="BJ21" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK21" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL21" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM21" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="BN21" s="13"/>
       <c r="BO21" s="13"/>
       <c r="BP21" s="13"/>
       <c r="BQ21" s="13"/>
-      <c r="BR21" s="13"/>
+      <c r="BR21" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="BS21" s="13"/>
       <c r="BT21" s="13"/>
       <c r="BU21" s="13"/>
-      <c r="BV21" s="13"/>
-      <c r="BW21" s="13"/>
-      <c r="BX21" s="13"/>
-      <c r="BY21" s="13"/>
-      <c r="BZ21" s="13"/>
-      <c r="CA21" s="13"/>
-      <c r="CB21" s="13"/>
-      <c r="CC21" s="13"/>
-      <c r="CD21" s="13"/>
-      <c r="CE21" s="13"/>
-      <c r="CF21" s="13"/>
-      <c r="CG21" s="13"/>
-      <c r="CH21" s="16"/>
+      <c r="BV21" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BW21" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BX21" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY21" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BZ21" s="13">
+        <v>0</v>
+      </c>
+      <c r="CA21" s="13">
+        <v>0</v>
+      </c>
+      <c r="CB21" s="13">
+        <v>0</v>
+      </c>
+      <c r="CC21" s="13">
+        <v>0</v>
+      </c>
+      <c r="CD21" s="13">
+        <v>0</v>
+      </c>
+      <c r="CE21" s="13">
+        <v>0</v>
+      </c>
+      <c r="CF21" s="13">
+        <v>0</v>
+      </c>
+      <c r="CG21" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH21" s="13">
+        <v>0</v>
+      </c>
+      <c r="CI21" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ21" s="13">
+        <v>0</v>
+      </c>
+      <c r="CK21" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="12" t="s">
+    <row r="22" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="C22" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="10">
+        <v>75.952399999999997</v>
+      </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
+      <c r="H22" s="17">
+        <v>9</v>
+      </c>
+      <c r="I22" s="17">
+        <v>9</v>
+      </c>
+      <c r="J22" s="17">
+        <v>8</v>
+      </c>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
+      <c r="O22" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
       <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
+      <c r="U22" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="V22" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="W22" s="17"/>
       <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
+      <c r="Y22" s="17">
+        <v>9</v>
+      </c>
+      <c r="Z22" s="17">
+        <v>9</v>
+      </c>
       <c r="AA22" s="17"/>
       <c r="AB22" s="17"/>
       <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
+      <c r="AD22" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="AE22" s="17"/>
-      <c r="AF22" s="17"/>
-      <c r="AG22" s="17"/>
+      <c r="AF22" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG22" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="AH22" s="17"/>
-      <c r="AI22" s="17"/>
-      <c r="AJ22" s="17"/>
+      <c r="AI22" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ22" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="AK22" s="17"/>
       <c r="AL22" s="17"/>
       <c r="AM22" s="17"/>
-      <c r="AN22" s="17"/>
-      <c r="AO22" s="17"/>
-      <c r="AP22" s="17"/>
+      <c r="AN22" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO22" s="17">
+        <v>7</v>
+      </c>
+      <c r="AP22" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="AQ22" s="17"/>
-      <c r="AR22" s="17"/>
-      <c r="AS22" s="17"/>
+      <c r="AR22" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS22" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="AT22" s="17"/>
-      <c r="AU22" s="17"/>
-      <c r="AV22" s="17"/>
-      <c r="AW22" s="17"/>
+      <c r="AU22" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV22" s="17">
+        <v>8</v>
+      </c>
+      <c r="AW22" s="17">
+        <v>7</v>
+      </c>
       <c r="AX22" s="17"/>
-      <c r="AY22" s="17"/>
+      <c r="AY22" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="AZ22" s="17"/>
       <c r="BA22" s="17"/>
       <c r="BB22" s="17"/>
       <c r="BC22" s="17"/>
       <c r="BD22" s="17"/>
-      <c r="BE22" s="17"/>
+      <c r="BE22" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="BF22" s="17"/>
-      <c r="BG22" s="17"/>
-      <c r="BH22" s="17"/>
-      <c r="BI22" s="17"/>
-      <c r="BJ22" s="17"/>
-      <c r="BK22" s="17"/>
+      <c r="BG22" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH22" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI22" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BJ22" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK22" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="BL22" s="17"/>
-      <c r="BM22" s="17"/>
+      <c r="BM22" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="BN22" s="17"/>
       <c r="BO22" s="17"/>
       <c r="BP22" s="17"/>
       <c r="BQ22" s="17"/>
-      <c r="BR22" s="17"/>
-      <c r="BS22" s="17"/>
-      <c r="BT22" s="17"/>
-      <c r="BU22" s="17"/>
+      <c r="BR22" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS22" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT22" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BU22" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="BV22" s="17"/>
-      <c r="BW22" s="17"/>
+      <c r="BW22" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="BX22" s="17"/>
-      <c r="BY22" s="17"/>
-      <c r="BZ22" s="17"/>
-      <c r="CA22" s="17"/>
-      <c r="CB22" s="17"/>
-      <c r="CC22" s="17"/>
-      <c r="CD22" s="17"/>
-      <c r="CE22" s="17"/>
-      <c r="CF22" s="17"/>
-      <c r="CG22" s="17"/>
-      <c r="CH22" s="18"/>
+      <c r="BY22" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BZ22" s="17">
+        <v>8</v>
+      </c>
+      <c r="CA22" s="17">
+        <v>5</v>
+      </c>
+      <c r="CB22" s="17">
+        <v>5</v>
+      </c>
+      <c r="CC22" s="17">
+        <v>5</v>
+      </c>
+      <c r="CD22" s="17">
+        <v>0</v>
+      </c>
+      <c r="CE22" s="17">
+        <v>0</v>
+      </c>
+      <c r="CF22" s="17">
+        <v>0</v>
+      </c>
+      <c r="CG22" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH22" s="17">
+        <v>2</v>
+      </c>
+      <c r="CI22" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ22" s="17">
+        <v>0</v>
+      </c>
+      <c r="CK22" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="C23" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="10"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
+      <c r="J23" s="13">
+        <v>8</v>
+      </c>
+      <c r="K23" s="13">
+        <v>9</v>
+      </c>
+      <c r="L23" s="13">
+        <v>9</v>
+      </c>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
@@ -3042,13 +5001,19 @@
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
+      <c r="T23" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
+      <c r="Y23" s="13">
+        <v>8</v>
+      </c>
+      <c r="Z23" s="13">
+        <v>9</v>
+      </c>
       <c r="AA23" s="13"/>
       <c r="AB23" s="13"/>
       <c r="AC23" s="13"/>
@@ -3071,7 +5036,9 @@
       <c r="AT23" s="13"/>
       <c r="AU23" s="13"/>
       <c r="AV23" s="13"/>
-      <c r="AW23" s="13"/>
+      <c r="AW23" s="13">
+        <v>7</v>
+      </c>
       <c r="AX23" s="13"/>
       <c r="AY23" s="13"/>
       <c r="AZ23" s="13"/>
@@ -3100,82 +5067,151 @@
       <c r="BW23" s="13"/>
       <c r="BX23" s="13"/>
       <c r="BY23" s="13"/>
-      <c r="BZ23" s="13"/>
+      <c r="BZ23" s="13">
+        <v>8</v>
+      </c>
       <c r="CA23" s="13"/>
       <c r="CB23" s="13"/>
       <c r="CC23" s="13"/>
-      <c r="CD23" s="13"/>
-      <c r="CE23" s="13"/>
-      <c r="CF23" s="13"/>
+      <c r="CD23" s="13">
+        <v>5</v>
+      </c>
+      <c r="CE23" s="13">
+        <v>7</v>
+      </c>
+      <c r="CF23" s="13">
+        <v>9</v>
+      </c>
       <c r="CG23" s="13"/>
-      <c r="CH23" s="16"/>
+      <c r="CH23" s="13">
+        <v>8</v>
+      </c>
+      <c r="CI23" s="13"/>
+      <c r="CJ23" s="13"/>
+      <c r="CK23" s="16"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
+      <c r="C24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="17">
+        <v>9</v>
+      </c>
+      <c r="H24" s="17">
+        <v>9</v>
+      </c>
+      <c r="I24" s="17">
+        <v>8</v>
+      </c>
+      <c r="J24" s="17">
+        <v>9</v>
+      </c>
+      <c r="K24" s="17">
+        <v>9</v>
+      </c>
+      <c r="L24" s="17">
+        <v>8</v>
+      </c>
       <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
+      <c r="N24" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="O24" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="Q24" s="17">
+        <v>9</v>
+      </c>
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
       <c r="T24" s="17"/>
       <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
+      <c r="V24" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="W24" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
+      <c r="Y24" s="17">
+        <v>8</v>
+      </c>
       <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
+      <c r="AA24" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB24" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
+      <c r="AD24" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="AE24" s="17"/>
       <c r="AF24" s="17"/>
-      <c r="AG24" s="17"/>
-      <c r="AH24" s="17"/>
+      <c r="AG24" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH24" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="AI24" s="17"/>
       <c r="AJ24" s="17"/>
-      <c r="AK24" s="17"/>
+      <c r="AK24" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="AL24" s="17"/>
       <c r="AM24" s="17"/>
       <c r="AN24" s="17"/>
       <c r="AO24" s="17"/>
-      <c r="AP24" s="17"/>
+      <c r="AP24" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="AQ24" s="17"/>
       <c r="AR24" s="17"/>
       <c r="AS24" s="17"/>
       <c r="AT24" s="17"/>
       <c r="AU24" s="17"/>
       <c r="AV24" s="17"/>
-      <c r="AW24" s="17"/>
+      <c r="AW24" s="17">
+        <v>9</v>
+      </c>
       <c r="AX24" s="17"/>
-      <c r="AY24" s="17"/>
+      <c r="AY24" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="AZ24" s="17"/>
       <c r="BA24" s="17"/>
       <c r="BB24" s="17"/>
       <c r="BC24" s="17"/>
       <c r="BD24" s="17"/>
-      <c r="BE24" s="17"/>
-      <c r="BF24" s="17"/>
-      <c r="BG24" s="17"/>
+      <c r="BE24" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BF24" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BG24" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BH24" s="17"/>
-      <c r="BI24" s="17"/>
+      <c r="BI24" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BJ24" s="17"/>
       <c r="BK24" s="17"/>
       <c r="BL24" s="17"/>
@@ -3192,507 +5228,1195 @@
       <c r="BW24" s="17"/>
       <c r="BX24" s="17"/>
       <c r="BY24" s="17"/>
-      <c r="BZ24" s="17"/>
+      <c r="BZ24" s="17">
+        <v>9</v>
+      </c>
       <c r="CA24" s="17"/>
-      <c r="CB24" s="17"/>
-      <c r="CC24" s="17"/>
-      <c r="CD24" s="17"/>
+      <c r="CB24" s="17">
+        <v>9</v>
+      </c>
+      <c r="CC24" s="17">
+        <v>9</v>
+      </c>
+      <c r="CD24" s="17">
+        <v>0</v>
+      </c>
       <c r="CE24" s="17"/>
-      <c r="CF24" s="17"/>
-      <c r="CG24" s="17"/>
-      <c r="CH24" s="18"/>
+      <c r="CF24" s="17">
+        <v>0</v>
+      </c>
+      <c r="CG24" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH24" s="17">
+        <v>0</v>
+      </c>
+      <c r="CI24" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ24" s="17">
+        <v>0</v>
+      </c>
+      <c r="CK24" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
+      <c r="C25" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="10">
+        <v>56.523800000000001</v>
+      </c>
+      <c r="G25" s="13">
+        <v>7</v>
+      </c>
+      <c r="H25" s="13">
+        <v>5</v>
+      </c>
+      <c r="I25" s="13">
+        <v>6</v>
+      </c>
+      <c r="J25" s="13">
+        <v>6</v>
+      </c>
+      <c r="K25" s="13">
+        <v>9</v>
+      </c>
+      <c r="L25" s="13">
+        <v>6</v>
+      </c>
       <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
+      <c r="N25" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
+      <c r="S25" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
       <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
+      <c r="W25" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
+      <c r="Y25" s="13">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="13">
+        <v>5</v>
+      </c>
+      <c r="AA25" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB25" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC25" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD25" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE25" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="AF25" s="13"/>
       <c r="AG25" s="13"/>
       <c r="AH25" s="13"/>
       <c r="AI25" s="13"/>
-      <c r="AJ25" s="13"/>
-      <c r="AK25" s="13"/>
-      <c r="AL25" s="13"/>
-      <c r="AM25" s="13"/>
-      <c r="AN25" s="13"/>
+      <c r="AJ25" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK25" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL25" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM25" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN25" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="AO25" s="13"/>
-      <c r="AP25" s="13"/>
-      <c r="AQ25" s="13"/>
-      <c r="AR25" s="13"/>
+      <c r="AP25" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ25" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR25" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="AS25" s="13"/>
-      <c r="AT25" s="13"/>
-      <c r="AU25" s="13"/>
-      <c r="AV25" s="13"/>
-      <c r="AW25" s="13"/>
-      <c r="AX25" s="13"/>
+      <c r="AT25" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU25" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV25" s="13">
+        <v>7</v>
+      </c>
+      <c r="AW25" s="13">
+        <v>6</v>
+      </c>
+      <c r="AX25" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="AY25" s="13"/>
       <c r="AZ25" s="13"/>
       <c r="BA25" s="13"/>
       <c r="BB25" s="13"/>
       <c r="BC25" s="13"/>
       <c r="BD25" s="13"/>
-      <c r="BE25" s="13"/>
+      <c r="BE25" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="BF25" s="13"/>
       <c r="BG25" s="13"/>
       <c r="BH25" s="13"/>
       <c r="BI25" s="13"/>
-      <c r="BJ25" s="13"/>
-      <c r="BK25" s="13"/>
+      <c r="BJ25" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK25" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="BL25" s="13"/>
       <c r="BM25" s="13"/>
       <c r="BN25" s="13"/>
-      <c r="BO25" s="13"/>
-      <c r="BP25" s="13"/>
+      <c r="BO25" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BP25" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="BQ25" s="13"/>
-      <c r="BR25" s="13"/>
+      <c r="BR25" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="BS25" s="13"/>
       <c r="BT25" s="13"/>
       <c r="BU25" s="13"/>
-      <c r="BV25" s="13"/>
-      <c r="BW25" s="13"/>
+      <c r="BV25" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="BW25" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="BX25" s="13"/>
-      <c r="BY25" s="13"/>
-      <c r="BZ25" s="13"/>
-      <c r="CA25" s="13"/>
-      <c r="CB25" s="13"/>
-      <c r="CC25" s="13"/>
-      <c r="CD25" s="13"/>
-      <c r="CE25" s="13"/>
-      <c r="CF25" s="13"/>
-      <c r="CG25" s="13"/>
-      <c r="CH25" s="16"/>
+      <c r="BY25" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BZ25" s="13">
+        <v>0</v>
+      </c>
+      <c r="CA25" s="13">
+        <v>0</v>
+      </c>
+      <c r="CB25" s="13">
+        <v>0</v>
+      </c>
+      <c r="CC25" s="13">
+        <v>0</v>
+      </c>
+      <c r="CD25" s="13">
+        <v>0</v>
+      </c>
+      <c r="CE25" s="13">
+        <v>0</v>
+      </c>
+      <c r="CF25" s="13">
+        <v>0</v>
+      </c>
+      <c r="CG25" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH25" s="13">
+        <v>0</v>
+      </c>
+      <c r="CI25" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ25" s="13">
+        <v>0</v>
+      </c>
+      <c r="CK25" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
+      <c r="C26" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="10">
+        <v>44.857799999999997</v>
+      </c>
+      <c r="G26" s="17">
+        <v>7</v>
+      </c>
+      <c r="H26" s="17">
+        <v>6</v>
+      </c>
+      <c r="I26" s="17">
+        <v>5</v>
+      </c>
+      <c r="J26" s="17">
+        <v>5</v>
+      </c>
+      <c r="K26" s="17">
+        <v>4</v>
+      </c>
+      <c r="L26" s="17">
+        <v>4</v>
+      </c>
       <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
+      <c r="N26" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="O26" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q26" s="17">
+        <v>6</v>
+      </c>
+      <c r="R26" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="S26" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="T26" s="17"/>
       <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
+      <c r="V26" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="W26" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="17"/>
-      <c r="AF26" s="17"/>
-      <c r="AG26" s="17"/>
-      <c r="AH26" s="17"/>
-      <c r="AI26" s="17"/>
-      <c r="AJ26" s="17"/>
-      <c r="AK26" s="17"/>
-      <c r="AL26" s="17"/>
-      <c r="AM26" s="17"/>
-      <c r="AN26" s="17"/>
-      <c r="AO26" s="17"/>
-      <c r="AP26" s="17"/>
+      <c r="Y26" s="17">
+        <v>7</v>
+      </c>
+      <c r="Z26" s="17">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB26" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC26" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD26" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE26" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF26" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG26" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH26" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI26" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ26" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK26" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL26" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM26" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN26" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO26" s="17">
+        <v>5</v>
+      </c>
+      <c r="AP26" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="AQ26" s="17"/>
-      <c r="AR26" s="17"/>
-      <c r="AS26" s="17"/>
-      <c r="AT26" s="17"/>
-      <c r="AU26" s="17"/>
-      <c r="AV26" s="17"/>
-      <c r="AW26" s="17"/>
-      <c r="AX26" s="17"/>
-      <c r="AY26" s="17"/>
+      <c r="AR26" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS26" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT26" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU26" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AV26" s="17">
+        <v>5</v>
+      </c>
+      <c r="AW26" s="17">
+        <v>5</v>
+      </c>
+      <c r="AX26" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY26" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="AZ26" s="17"/>
-      <c r="BA26" s="17"/>
-      <c r="BB26" s="17"/>
-      <c r="BC26" s="17"/>
-      <c r="BD26" s="17"/>
-      <c r="BE26" s="17"/>
-      <c r="BF26" s="17"/>
-      <c r="BG26" s="17"/>
-      <c r="BH26" s="17"/>
-      <c r="BI26" s="17"/>
-      <c r="BJ26" s="17"/>
-      <c r="BK26" s="17"/>
-      <c r="BL26" s="17"/>
-      <c r="BM26" s="17"/>
-      <c r="BN26" s="17"/>
-      <c r="BO26" s="17"/>
-      <c r="BP26" s="17"/>
+      <c r="BA26" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB26" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC26" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BD26" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE26" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF26" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG26" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH26" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="BI26" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="BJ26" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="BK26" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="BL26" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM26" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN26" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO26" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BP26" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="BQ26" s="17"/>
-      <c r="BR26" s="17"/>
-      <c r="BS26" s="17"/>
-      <c r="BT26" s="17"/>
-      <c r="BU26" s="17"/>
-      <c r="BV26" s="17"/>
-      <c r="BW26" s="17"/>
+      <c r="BR26" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS26" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="BT26" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="BU26" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV26" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="BW26" s="17" t="s">
+        <v>94</v>
+      </c>
       <c r="BX26" s="17"/>
       <c r="BY26" s="17"/>
-      <c r="BZ26" s="17"/>
-      <c r="CA26" s="17"/>
-      <c r="CB26" s="17"/>
-      <c r="CC26" s="17"/>
-      <c r="CD26" s="17"/>
-      <c r="CE26" s="17"/>
-      <c r="CF26" s="17"/>
-      <c r="CG26" s="17"/>
-      <c r="CH26" s="18"/>
+      <c r="BZ26" s="17">
+        <v>7</v>
+      </c>
+      <c r="CA26" s="22">
+        <v>7</v>
+      </c>
+      <c r="CB26" s="17">
+        <v>8</v>
+      </c>
+      <c r="CC26" s="17">
+        <v>5</v>
+      </c>
+      <c r="CD26" s="17">
+        <v>0</v>
+      </c>
+      <c r="CE26" s="17">
+        <v>3</v>
+      </c>
+      <c r="CF26" s="17">
+        <v>0</v>
+      </c>
+      <c r="CG26" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH26" s="17">
+        <v>4</v>
+      </c>
+      <c r="CI26" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ26" s="17">
+        <v>0</v>
+      </c>
+      <c r="CK26" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
+      <c r="C27" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="11">
+        <v>40.985199999999999</v>
+      </c>
+      <c r="G27" s="20">
+        <v>4</v>
+      </c>
+      <c r="H27" s="17">
+        <v>2</v>
+      </c>
+      <c r="I27" s="17">
+        <v>5</v>
+      </c>
+      <c r="J27" s="17">
+        <v>7</v>
+      </c>
+      <c r="K27" s="17">
+        <v>6</v>
+      </c>
+      <c r="L27" s="17">
+        <v>3</v>
+      </c>
       <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
+      <c r="N27" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="O27" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="Q27" s="17">
+        <v>2</v>
+      </c>
       <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
+      <c r="S27" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="T27" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
+      <c r="V27" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="W27" s="17"/>
       <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
+      <c r="Y27" s="17">
+        <v>3</v>
+      </c>
+      <c r="Z27" s="17">
+        <v>5</v>
+      </c>
+      <c r="AA27" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="17"/>
+      <c r="AC27" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD27" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="AE27" s="17"/>
-      <c r="AF27" s="17"/>
-      <c r="AG27" s="17"/>
+      <c r="AF27" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG27" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="AH27" s="17"/>
-      <c r="AI27" s="17"/>
-      <c r="AJ27" s="17"/>
-      <c r="AK27" s="17"/>
+      <c r="AI27" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ27" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK27" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="AL27" s="17"/>
       <c r="AM27" s="17"/>
-      <c r="AN27" s="17"/>
-      <c r="AO27" s="17"/>
-      <c r="AP27" s="17"/>
-      <c r="AQ27" s="17"/>
+      <c r="AN27" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO27" s="17">
+        <v>9</v>
+      </c>
+      <c r="AP27" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ27" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="AR27" s="17"/>
       <c r="AS27" s="17"/>
       <c r="AT27" s="17"/>
       <c r="AU27" s="17"/>
-      <c r="AV27" s="17"/>
-      <c r="AW27" s="17"/>
+      <c r="AV27" s="17">
+        <v>5</v>
+      </c>
+      <c r="AW27" s="17">
+        <v>7</v>
+      </c>
       <c r="AX27" s="17"/>
-      <c r="AY27" s="17"/>
-      <c r="AZ27" s="17"/>
+      <c r="AY27" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ27" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BA27" s="17"/>
       <c r="BB27" s="17"/>
       <c r="BC27" s="17"/>
       <c r="BD27" s="17"/>
-      <c r="BE27" s="17"/>
-      <c r="BF27" s="17"/>
-      <c r="BG27" s="17"/>
-      <c r="BH27" s="17"/>
+      <c r="BE27" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BF27" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BG27" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH27" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BI27" s="17"/>
       <c r="BJ27" s="17"/>
       <c r="BK27" s="17"/>
-      <c r="BL27" s="17"/>
-      <c r="BM27" s="17"/>
-      <c r="BN27" s="17"/>
+      <c r="BL27" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM27" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN27" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BO27" s="17"/>
       <c r="BP27" s="17"/>
       <c r="BQ27" s="17"/>
-      <c r="BR27" s="17"/>
-      <c r="BS27" s="17"/>
+      <c r="BR27" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BS27" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BT27" s="17"/>
-      <c r="BU27" s="17"/>
+      <c r="BU27" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BV27" s="17"/>
-      <c r="BW27" s="17"/>
+      <c r="BW27" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BX27" s="17"/>
-      <c r="BY27" s="17"/>
-      <c r="BZ27" s="17"/>
-      <c r="CA27" s="17"/>
-      <c r="CB27" s="17"/>
-      <c r="CC27" s="17"/>
-      <c r="CD27" s="17"/>
-      <c r="CE27" s="17"/>
-      <c r="CF27" s="17"/>
-      <c r="CG27" s="17"/>
-      <c r="CH27" s="18"/>
+      <c r="BY27" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BZ27" s="17">
+        <v>5</v>
+      </c>
+      <c r="CA27" s="17">
+        <v>5</v>
+      </c>
+      <c r="CB27" s="17">
+        <v>5</v>
+      </c>
+      <c r="CC27" s="17">
+        <v>5</v>
+      </c>
+      <c r="CD27" s="17">
+        <v>0</v>
+      </c>
+      <c r="CE27" s="17">
+        <v>0</v>
+      </c>
+      <c r="CF27" s="17">
+        <v>0</v>
+      </c>
+      <c r="CG27" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH27" s="17">
+        <v>0</v>
+      </c>
+      <c r="CI27" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ27" s="17">
+        <v>0</v>
+      </c>
+      <c r="CK27" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
+      <c r="C28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="12">
+        <v>64.952600000000004</v>
+      </c>
+      <c r="G28" s="17">
+        <v>7</v>
+      </c>
+      <c r="H28" s="17">
+        <v>8</v>
+      </c>
+      <c r="I28" s="17">
+        <v>7</v>
+      </c>
+      <c r="J28" s="17">
+        <v>7</v>
+      </c>
+      <c r="K28" s="17">
+        <v>7</v>
+      </c>
+      <c r="L28" s="17">
+        <v>7</v>
+      </c>
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
+      <c r="O28" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="P28" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q28" s="17">
+        <v>7</v>
+      </c>
+      <c r="R28" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="S28" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="T28" s="17"/>
       <c r="U28" s="17"/>
       <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
+      <c r="W28" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
+      <c r="Y28" s="17">
+        <v>6</v>
+      </c>
+      <c r="Z28" s="17">
+        <v>7</v>
+      </c>
+      <c r="AA28" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB28" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC28" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="17"/>
-      <c r="AJ28" s="17"/>
+      <c r="AE28" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH28" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI28" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ28" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="AK28" s="17"/>
       <c r="AL28" s="17"/>
-      <c r="AM28" s="17"/>
+      <c r="AM28" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="AN28" s="17"/>
-      <c r="AO28" s="17"/>
-      <c r="AP28" s="17"/>
-      <c r="AQ28" s="17"/>
-      <c r="AR28" s="17"/>
-      <c r="AS28" s="17"/>
-      <c r="AT28" s="17"/>
-      <c r="AU28" s="17"/>
-      <c r="AV28" s="17"/>
-      <c r="AW28" s="17"/>
-      <c r="AX28" s="17"/>
-      <c r="AY28" s="17"/>
+      <c r="AO28" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV28" s="17">
+        <v>6</v>
+      </c>
+      <c r="AW28" s="17">
+        <v>6</v>
+      </c>
+      <c r="AX28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY28" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="AZ28" s="17"/>
-      <c r="BA28" s="17"/>
+      <c r="BA28" s="17" t="s">
+        <v>94</v>
+      </c>
       <c r="BB28" s="17"/>
       <c r="BC28" s="17"/>
       <c r="BD28" s="17"/>
-      <c r="BE28" s="17"/>
-      <c r="BF28" s="17"/>
-      <c r="BG28" s="17"/>
+      <c r="BE28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BF28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG28" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="BH28" s="17"/>
-      <c r="BI28" s="17"/>
-      <c r="BJ28" s="17"/>
-      <c r="BK28" s="17"/>
-      <c r="BL28" s="17"/>
-      <c r="BM28" s="17"/>
-      <c r="BN28" s="17"/>
-      <c r="BO28" s="17"/>
-      <c r="BP28" s="17"/>
+      <c r="BI28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BJ28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BP28" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="BQ28" s="17"/>
-      <c r="BR28" s="17"/>
-      <c r="BS28" s="17"/>
-      <c r="BT28" s="17"/>
+      <c r="BR28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT28" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="BU28" s="17"/>
-      <c r="BV28" s="17"/>
-      <c r="BW28" s="17"/>
-      <c r="BX28" s="17"/>
-      <c r="BY28" s="17"/>
-      <c r="BZ28" s="17"/>
+      <c r="BV28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BW28" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="BX28" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY28" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="BZ28" s="17">
+        <v>6</v>
+      </c>
       <c r="CA28" s="17"/>
-      <c r="CB28" s="17"/>
-      <c r="CC28" s="17"/>
-      <c r="CD28" s="17"/>
-      <c r="CE28" s="17"/>
-      <c r="CF28" s="17"/>
-      <c r="CG28" s="17"/>
-      <c r="CH28" s="18"/>
+      <c r="CB28" s="17">
+        <v>8</v>
+      </c>
+      <c r="CC28" s="17">
+        <v>8</v>
+      </c>
+      <c r="CD28" s="17">
+        <v>0</v>
+      </c>
+      <c r="CE28" s="17">
+        <v>4</v>
+      </c>
+      <c r="CF28" s="17">
+        <v>3</v>
+      </c>
+      <c r="CG28" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH28" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="CI28" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ28" s="17">
+        <v>0</v>
+      </c>
+      <c r="CK28" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
+    <row r="29" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="10">
+        <v>70.690200000000004</v>
+      </c>
+      <c r="G29" s="17">
+        <v>9</v>
+      </c>
+      <c r="H29" s="17">
+        <v>9</v>
+      </c>
+      <c r="I29" s="17">
+        <v>8</v>
+      </c>
+      <c r="J29" s="17">
+        <v>9</v>
+      </c>
       <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
+      <c r="L29" s="17">
+        <v>5</v>
+      </c>
       <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
+      <c r="N29" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="O29" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="P29" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
+      <c r="R29" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="S29" s="17"/>
       <c r="T29" s="17"/>
       <c r="U29" s="17"/>
       <c r="V29" s="17"/>
       <c r="W29" s="17"/>
       <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
+      <c r="Y29" s="17">
+        <v>9</v>
+      </c>
+      <c r="Z29" s="17">
+        <v>6</v>
+      </c>
+      <c r="AA29" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
+      <c r="AC29" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="AD29" s="17"/>
       <c r="AE29" s="17"/>
       <c r="AF29" s="17"/>
       <c r="AG29" s="17"/>
-      <c r="AH29" s="17"/>
-      <c r="AI29" s="17"/>
-      <c r="AJ29" s="17"/>
+      <c r="AH29" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI29" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ29" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="AK29" s="17"/>
-      <c r="AL29" s="17"/>
-      <c r="AM29" s="17"/>
+      <c r="AL29" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM29" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="AN29" s="17"/>
       <c r="AO29" s="17"/>
-      <c r="AP29" s="17"/>
-      <c r="AQ29" s="17"/>
+      <c r="AP29" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ29" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="AR29" s="17"/>
       <c r="AS29" s="17"/>
-      <c r="AT29" s="17"/>
+      <c r="AT29" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="AU29" s="17"/>
       <c r="AV29" s="17"/>
-      <c r="AW29" s="17"/>
-      <c r="AX29" s="17"/>
-      <c r="AY29" s="17"/>
-      <c r="AZ29" s="17"/>
+      <c r="AW29" s="17">
+        <v>7</v>
+      </c>
+      <c r="AX29" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY29" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ29" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="BA29" s="17"/>
       <c r="BB29" s="17"/>
       <c r="BC29" s="17"/>
-      <c r="BD29" s="17"/>
+      <c r="BD29" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="BE29" s="17"/>
       <c r="BF29" s="17"/>
       <c r="BG29" s="17"/>
-      <c r="BH29" s="17"/>
+      <c r="BH29" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="BI29" s="17"/>
-      <c r="BJ29" s="17"/>
-      <c r="BK29" s="17"/>
+      <c r="BJ29" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK29" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="BL29" s="17"/>
-      <c r="BM29" s="17"/>
-      <c r="BN29" s="17"/>
-      <c r="BO29" s="17"/>
+      <c r="BM29" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN29" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BO29" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="BP29" s="17"/>
       <c r="BQ29" s="17"/>
       <c r="BR29" s="17"/>
       <c r="BS29" s="17"/>
       <c r="BT29" s="17"/>
-      <c r="BU29" s="17"/>
-      <c r="BV29" s="17"/>
-      <c r="BW29" s="17"/>
+      <c r="BU29" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BV29" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BW29" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BX29" s="17"/>
       <c r="BY29" s="17"/>
       <c r="BZ29" s="17"/>
       <c r="CA29" s="17"/>
       <c r="CB29" s="17"/>
-      <c r="CC29" s="17"/>
-      <c r="CD29" s="17"/>
-      <c r="CE29" s="17"/>
-      <c r="CF29" s="17"/>
+      <c r="CC29" s="17">
+        <v>7</v>
+      </c>
+      <c r="CD29" s="17">
+        <v>0</v>
+      </c>
+      <c r="CE29" s="17">
+        <v>5</v>
+      </c>
+      <c r="CF29" s="17">
+        <v>0</v>
+      </c>
       <c r="CG29" s="17"/>
-      <c r="CH29" s="18"/>
+      <c r="CH29" s="17">
+        <v>0</v>
+      </c>
+      <c r="CI29" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ29" s="17">
+        <v>0</v>
+      </c>
+      <c r="CK29" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
+    <row r="30" spans="1:89" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="9">
+        <v>71.421800000000005</v>
+      </c>
+      <c r="G30" s="17">
+        <v>7</v>
+      </c>
+      <c r="H30" s="17">
+        <v>7</v>
+      </c>
+      <c r="I30" s="17">
+        <v>9</v>
+      </c>
+      <c r="J30" s="17">
+        <v>8</v>
+      </c>
+      <c r="K30" s="17">
+        <v>8</v>
+      </c>
+      <c r="L30" s="17">
+        <v>8</v>
+      </c>
+      <c r="M30" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="N30" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="17"/>
       <c r="R30" s="17"/>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
+      <c r="U30" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="V30" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="W30" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
+      <c r="Y30" s="17">
+        <v>8</v>
+      </c>
+      <c r="Z30" s="17">
+        <v>8</v>
+      </c>
       <c r="AA30" s="17"/>
       <c r="AB30" s="17"/>
       <c r="AC30" s="17"/>
@@ -3700,10 +6424,16 @@
       <c r="AE30" s="17"/>
       <c r="AF30" s="17"/>
       <c r="AG30" s="17"/>
-      <c r="AH30" s="17"/>
+      <c r="AH30" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="AI30" s="17"/>
-      <c r="AJ30" s="17"/>
-      <c r="AK30" s="17"/>
+      <c r="AJ30" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK30" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="AL30" s="17"/>
       <c r="AM30" s="17"/>
       <c r="AN30" s="17"/>
@@ -3712,10 +6442,18 @@
       <c r="AQ30" s="17"/>
       <c r="AR30" s="17"/>
       <c r="AS30" s="17"/>
-      <c r="AT30" s="17"/>
-      <c r="AU30" s="17"/>
-      <c r="AV30" s="17"/>
-      <c r="AW30" s="17"/>
+      <c r="AT30" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU30" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV30" s="17">
+        <v>7</v>
+      </c>
+      <c r="AW30" s="17">
+        <v>6</v>
+      </c>
       <c r="AX30" s="17"/>
       <c r="AY30" s="17"/>
       <c r="AZ30" s="17"/>
@@ -3725,89 +6463,178 @@
       <c r="BD30" s="17"/>
       <c r="BE30" s="17"/>
       <c r="BF30" s="17"/>
-      <c r="BG30" s="17"/>
-      <c r="BH30" s="17"/>
+      <c r="BG30" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BH30" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BI30" s="17"/>
-      <c r="BJ30" s="17"/>
-      <c r="BK30" s="17"/>
-      <c r="BL30" s="17"/>
-      <c r="BM30" s="17"/>
+      <c r="BJ30" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK30" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BL30" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM30" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BN30" s="17"/>
       <c r="BO30" s="17"/>
       <c r="BP30" s="17"/>
       <c r="BQ30" s="17"/>
-      <c r="BR30" s="17"/>
+      <c r="BR30" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BS30" s="17"/>
       <c r="BT30" s="17"/>
       <c r="BU30" s="17"/>
-      <c r="BV30" s="17"/>
+      <c r="BV30" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BW30" s="17"/>
-      <c r="BX30" s="17"/>
+      <c r="BX30" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BY30" s="17"/>
       <c r="BZ30" s="17"/>
       <c r="CA30" s="17"/>
-      <c r="CB30" s="17"/>
-      <c r="CC30" s="17"/>
-      <c r="CD30" s="17"/>
-      <c r="CE30" s="17"/>
-      <c r="CF30" s="17"/>
-      <c r="CG30" s="17"/>
-      <c r="CH30" s="18"/>
+      <c r="CB30" s="17">
+        <v>8</v>
+      </c>
+      <c r="CC30" s="17">
+        <v>9</v>
+      </c>
+      <c r="CD30" s="17">
+        <v>0</v>
+      </c>
+      <c r="CE30" s="17">
+        <v>8</v>
+      </c>
+      <c r="CF30" s="17">
+        <v>0</v>
+      </c>
+      <c r="CG30" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH30" s="17">
+        <v>0</v>
+      </c>
+      <c r="CI30" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ30" s="17">
+        <v>7</v>
+      </c>
+      <c r="CK30" s="18">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+    <row r="31" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="9">
+        <v>76.611400000000003</v>
+      </c>
       <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
+      <c r="H31" s="17">
+        <v>9</v>
+      </c>
+      <c r="I31" s="17">
+        <v>9</v>
+      </c>
+      <c r="J31" s="17">
+        <v>9</v>
+      </c>
+      <c r="K31" s="17">
+        <v>9</v>
+      </c>
+      <c r="L31" s="17">
+        <v>9</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
       <c r="S31" s="17"/>
       <c r="T31" s="17"/>
       <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
+      <c r="V31" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="W31" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
+      <c r="Y31" s="17">
+        <v>9</v>
+      </c>
+      <c r="Z31" s="17">
+        <v>8</v>
+      </c>
+      <c r="AA31" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB31" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="AC31" s="17"/>
-      <c r="AD31" s="17"/>
+      <c r="AD31" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="AE31" s="17"/>
       <c r="AF31" s="17"/>
       <c r="AG31" s="17"/>
       <c r="AH31" s="17"/>
       <c r="AI31" s="17"/>
       <c r="AJ31" s="17"/>
-      <c r="AK31" s="17"/>
+      <c r="AK31" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="AL31" s="17"/>
       <c r="AM31" s="17"/>
-      <c r="AN31" s="17"/>
+      <c r="AN31" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="AO31" s="17"/>
       <c r="AP31" s="17"/>
       <c r="AQ31" s="17"/>
       <c r="AR31" s="17"/>
       <c r="AS31" s="17"/>
       <c r="AT31" s="17"/>
-      <c r="AU31" s="17"/>
-      <c r="AV31" s="17"/>
-      <c r="AW31" s="17"/>
+      <c r="AU31" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV31" s="17">
+        <v>8</v>
+      </c>
+      <c r="AW31" s="17">
+        <v>8</v>
+      </c>
       <c r="AX31" s="17"/>
       <c r="AY31" s="17"/>
       <c r="AZ31" s="17"/>
@@ -3816,25 +6643,43 @@
       <c r="BC31" s="17"/>
       <c r="BD31" s="17"/>
       <c r="BE31" s="17"/>
-      <c r="BF31" s="17"/>
+      <c r="BF31" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BG31" s="17"/>
-      <c r="BH31" s="17"/>
+      <c r="BH31" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BI31" s="17"/>
-      <c r="BJ31" s="17"/>
-      <c r="BK31" s="17"/>
-      <c r="BL31" s="17"/>
-      <c r="BM31" s="17"/>
+      <c r="BJ31" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK31" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL31" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM31" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BN31" s="17"/>
       <c r="BO31" s="17"/>
       <c r="BP31" s="17"/>
       <c r="BQ31" s="17"/>
-      <c r="BR31" s="17"/>
+      <c r="BR31" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BS31" s="17"/>
       <c r="BT31" s="17"/>
       <c r="BU31" s="17"/>
-      <c r="BV31" s="17"/>
+      <c r="BV31" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BW31" s="17"/>
-      <c r="BX31" s="17"/>
+      <c r="BX31" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="BY31" s="17"/>
       <c r="BZ31" s="17"/>
       <c r="CA31" s="17"/>
@@ -3842,135 +6687,1409 @@
       <c r="CC31" s="17"/>
       <c r="CD31" s="17"/>
       <c r="CE31" s="17"/>
-      <c r="CF31" s="17"/>
-      <c r="CG31" s="17"/>
-      <c r="CH31" s="18"/>
+      <c r="CF31" s="17">
+        <v>0</v>
+      </c>
+      <c r="CG31" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH31" s="17">
+        <v>0</v>
+      </c>
+      <c r="CI31" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ31" s="17">
+        <v>0</v>
+      </c>
+      <c r="CK31" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="17">
+        <v>1</v>
+      </c>
+      <c r="H32" s="17">
+        <v>7</v>
+      </c>
+      <c r="I32" s="17">
+        <v>5</v>
+      </c>
+      <c r="J32" s="17">
+        <v>5</v>
+      </c>
+      <c r="K32" s="17">
+        <v>5</v>
+      </c>
+      <c r="L32" s="17">
+        <v>5</v>
+      </c>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="O32" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="W32" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="17">
+        <v>4</v>
+      </c>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE32" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="17"/>
+      <c r="AH32" s="17"/>
+      <c r="AI32" s="17"/>
+      <c r="AJ32" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK32" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL32" s="17"/>
+      <c r="AM32" s="17"/>
+      <c r="AN32" s="17"/>
+      <c r="AO32" s="17">
+        <v>9</v>
+      </c>
+      <c r="AP32" s="17"/>
+      <c r="AQ32" s="17"/>
+      <c r="AR32" s="17"/>
+      <c r="AS32" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT32" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU32" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV32" s="17">
+        <v>5</v>
+      </c>
+      <c r="AW32" s="17">
+        <v>6</v>
+      </c>
+      <c r="AX32" s="17"/>
+      <c r="AY32" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ32" s="17"/>
+      <c r="BA32" s="17"/>
+      <c r="BB32" s="17"/>
+      <c r="BC32" s="17"/>
+      <c r="BD32" s="17"/>
+      <c r="BE32" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BF32" s="17"/>
+      <c r="BG32" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BH32" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BI32" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BJ32" s="17"/>
+      <c r="BK32" s="17"/>
+      <c r="BL32" s="17"/>
+      <c r="BM32" s="17"/>
+      <c r="BN32" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BO32" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BP32" s="17"/>
+      <c r="BQ32" s="17"/>
+      <c r="BR32" s="17"/>
+      <c r="BS32" s="17"/>
+      <c r="BT32" s="17"/>
+      <c r="BU32" s="17"/>
+      <c r="BV32" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BW32" s="17"/>
+      <c r="BX32" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY32" s="17"/>
+      <c r="BZ32" s="17">
+        <v>6</v>
+      </c>
+      <c r="CA32" s="17">
+        <v>7</v>
+      </c>
+      <c r="CB32" s="17">
+        <v>7</v>
+      </c>
+      <c r="CC32" s="17">
+        <v>8</v>
+      </c>
+      <c r="CD32" s="17">
+        <v>8</v>
+      </c>
+      <c r="CE32" s="17">
+        <v>7</v>
+      </c>
+      <c r="CF32" s="17">
+        <v>4</v>
+      </c>
+      <c r="CG32" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH32" s="17">
+        <v>0</v>
+      </c>
+      <c r="CI32" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ32" s="17">
+        <v>5</v>
+      </c>
+      <c r="CK32" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="17">
+        <v>9</v>
+      </c>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17">
+        <v>8</v>
+      </c>
+      <c r="K33" s="17">
+        <v>9</v>
+      </c>
+      <c r="L33" s="17">
+        <v>9</v>
+      </c>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="T33" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17">
+        <v>8</v>
+      </c>
+      <c r="Z33" s="17">
+        <v>8</v>
+      </c>
+      <c r="AA33" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB33" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17"/>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI33" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ33" s="17"/>
+      <c r="AK33" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL33" s="17"/>
+      <c r="AM33" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN33" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO33" s="17">
+        <v>7</v>
+      </c>
+      <c r="AP33" s="17"/>
+      <c r="AQ33" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR33" s="17"/>
+      <c r="AS33" s="17"/>
+      <c r="AT33" s="17"/>
+      <c r="AU33" s="17"/>
+      <c r="AV33" s="17">
+        <v>8</v>
+      </c>
+      <c r="AW33" s="17">
+        <v>8</v>
+      </c>
+      <c r="AX33" s="17"/>
+      <c r="AY33" s="17"/>
+      <c r="AZ33" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA33" s="17"/>
+      <c r="BB33" s="17"/>
+      <c r="BC33" s="17"/>
+      <c r="BD33" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE33" s="17"/>
+      <c r="BF33" s="17"/>
+      <c r="BG33" s="17"/>
+      <c r="BH33" s="17"/>
+      <c r="BI33" s="17"/>
+      <c r="BJ33" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK33" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BL33" s="17"/>
+      <c r="BM33" s="17"/>
+      <c r="BN33" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BO33" s="17"/>
+      <c r="BP33" s="17"/>
+      <c r="BQ33" s="17"/>
+      <c r="BR33" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BS33" s="17"/>
+      <c r="BT33" s="17"/>
+      <c r="BU33" s="17"/>
+      <c r="BV33" s="17"/>
+      <c r="BW33" s="17"/>
+      <c r="BX33" s="17"/>
+      <c r="BY33" s="17"/>
+      <c r="BZ33" s="17"/>
+      <c r="CA33" s="17"/>
+      <c r="CB33" s="17"/>
+      <c r="CC33" s="17"/>
+      <c r="CD33" s="17"/>
+      <c r="CE33" s="17"/>
+      <c r="CF33" s="17"/>
+      <c r="CG33" s="17"/>
+      <c r="CH33" s="17"/>
+      <c r="CI33" s="17"/>
+      <c r="CJ33" s="17"/>
+      <c r="CK33" s="18"/>
+    </row>
+    <row r="34" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="13"/>
-      <c r="AG32" s="13"/>
-      <c r="AH32" s="13"/>
-      <c r="AI32" s="13"/>
-      <c r="AJ32" s="13"/>
-      <c r="AK32" s="13"/>
-      <c r="AL32" s="13"/>
-      <c r="AM32" s="13"/>
-      <c r="AN32" s="13"/>
-      <c r="AO32" s="13"/>
-      <c r="AP32" s="13"/>
-      <c r="AQ32" s="13"/>
-      <c r="AR32" s="13"/>
-      <c r="AS32" s="13"/>
-      <c r="AT32" s="13"/>
-      <c r="AU32" s="13"/>
-      <c r="AV32" s="13"/>
-      <c r="AW32" s="13"/>
-      <c r="AX32" s="13"/>
-      <c r="AY32" s="13"/>
-      <c r="AZ32" s="13"/>
-      <c r="BA32" s="13"/>
-      <c r="BB32" s="13"/>
-      <c r="BC32" s="13"/>
-      <c r="BD32" s="13"/>
-      <c r="BE32" s="13"/>
-      <c r="BF32" s="13"/>
-      <c r="BG32" s="13"/>
-      <c r="BH32" s="13"/>
-      <c r="BI32" s="13"/>
-      <c r="BJ32" s="13"/>
-      <c r="BK32" s="13"/>
-      <c r="BL32" s="13"/>
-      <c r="BM32" s="13"/>
-      <c r="BN32" s="13"/>
-      <c r="BO32" s="13"/>
-      <c r="BP32" s="13"/>
-      <c r="BQ32" s="13"/>
-      <c r="BR32" s="13"/>
-      <c r="BS32" s="13"/>
-      <c r="BT32" s="13"/>
-      <c r="BU32" s="13"/>
-      <c r="BV32" s="13"/>
-      <c r="BW32" s="13"/>
-      <c r="BX32" s="13"/>
-      <c r="BY32" s="13"/>
-      <c r="BZ32" s="13"/>
-      <c r="CA32" s="13"/>
-      <c r="CB32" s="13"/>
-      <c r="CC32" s="13"/>
-      <c r="CD32" s="13"/>
-      <c r="CE32" s="13"/>
-      <c r="CF32" s="13"/>
-      <c r="CG32" s="13"/>
-      <c r="CH32" s="16"/>
+      <c r="C34" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
+      <c r="AH34" s="17"/>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="17"/>
+      <c r="AL34" s="17"/>
+      <c r="AM34" s="17"/>
+      <c r="AN34" s="17"/>
+      <c r="AO34" s="17"/>
+      <c r="AP34" s="17"/>
+      <c r="AQ34" s="17"/>
+      <c r="AR34" s="17"/>
+      <c r="AS34" s="17"/>
+      <c r="AT34" s="17"/>
+      <c r="AU34" s="17"/>
+      <c r="AV34" s="17"/>
+      <c r="AW34" s="17"/>
+      <c r="AX34" s="17"/>
+      <c r="AY34" s="17"/>
+      <c r="AZ34" s="17"/>
+      <c r="BA34" s="17"/>
+      <c r="BB34" s="17"/>
+      <c r="BC34" s="17"/>
+      <c r="BD34" s="17"/>
+      <c r="BE34" s="17"/>
+      <c r="BF34" s="17"/>
+      <c r="BG34" s="17"/>
+      <c r="BH34" s="17"/>
+      <c r="BI34" s="17"/>
+      <c r="BJ34" s="17"/>
+      <c r="BK34" s="17"/>
+      <c r="BL34" s="17"/>
+      <c r="BM34" s="17"/>
+      <c r="BN34" s="17"/>
+      <c r="BO34" s="17"/>
+      <c r="BP34" s="17"/>
+      <c r="BQ34" s="17"/>
+      <c r="BR34" s="17"/>
+      <c r="BS34" s="17"/>
+      <c r="BT34" s="17"/>
+      <c r="BU34" s="17"/>
+      <c r="BV34" s="17"/>
+      <c r="BW34" s="17"/>
+      <c r="BX34" s="17"/>
+      <c r="BY34" s="17"/>
+      <c r="BZ34" s="17"/>
+      <c r="CA34" s="17"/>
+      <c r="CB34" s="17"/>
+      <c r="CC34" s="17"/>
+      <c r="CD34" s="17"/>
+      <c r="CE34" s="17"/>
+      <c r="CF34" s="17"/>
+      <c r="CG34" s="17"/>
+      <c r="CH34" s="17"/>
+      <c r="CI34" s="17"/>
+      <c r="CJ34" s="17"/>
+      <c r="CK34" s="18"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+    <row r="35" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B35" s="6" t="s">
         <v>148</v>
       </c>
+      <c r="C35" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="17"/>
+      <c r="AE35" s="17"/>
+      <c r="AF35" s="17"/>
+      <c r="AG35" s="17"/>
+      <c r="AH35" s="17"/>
+      <c r="AI35" s="17"/>
+      <c r="AJ35" s="17"/>
+      <c r="AK35" s="17"/>
+      <c r="AL35" s="17"/>
+      <c r="AM35" s="17"/>
+      <c r="AN35" s="17"/>
+      <c r="AO35" s="17"/>
+      <c r="AP35" s="17"/>
+      <c r="AQ35" s="17"/>
+      <c r="AR35" s="17"/>
+      <c r="AS35" s="17"/>
+      <c r="AT35" s="17"/>
+      <c r="AU35" s="17"/>
+      <c r="AV35" s="17"/>
+      <c r="AW35" s="17"/>
+      <c r="AX35" s="17"/>
+      <c r="AY35" s="17"/>
+      <c r="AZ35" s="17"/>
+      <c r="BA35" s="17"/>
+      <c r="BB35" s="17"/>
+      <c r="BC35" s="17"/>
+      <c r="BD35" s="17"/>
+      <c r="BE35" s="17"/>
+      <c r="BF35" s="17"/>
+      <c r="BG35" s="17"/>
+      <c r="BH35" s="17"/>
+      <c r="BI35" s="17"/>
+      <c r="BJ35" s="17"/>
+      <c r="BK35" s="17"/>
+      <c r="BL35" s="17"/>
+      <c r="BM35" s="17"/>
+      <c r="BN35" s="17"/>
+      <c r="BO35" s="17"/>
+      <c r="BP35" s="17"/>
+      <c r="BQ35" s="17"/>
+      <c r="BR35" s="17"/>
+      <c r="BS35" s="17"/>
+      <c r="BT35" s="17"/>
+      <c r="BU35" s="17"/>
+      <c r="BV35" s="17"/>
+      <c r="BW35" s="17"/>
+      <c r="BX35" s="17"/>
+      <c r="BY35" s="17"/>
+      <c r="BZ35" s="17"/>
+      <c r="CA35" s="17"/>
+      <c r="CB35" s="17"/>
+      <c r="CC35" s="17"/>
+      <c r="CD35" s="17"/>
+      <c r="CE35" s="17"/>
+      <c r="CF35" s="17"/>
+      <c r="CG35" s="17"/>
+      <c r="CH35" s="17"/>
+      <c r="CI35" s="17"/>
+      <c r="CJ35" s="17"/>
+      <c r="CK35" s="18"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+    <row r="36" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B36" s="6" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>152</v>
+      <c r="C36" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="17">
+        <v>9</v>
+      </c>
+      <c r="H36" s="17">
+        <v>9</v>
+      </c>
+      <c r="I36" s="17">
+        <v>7</v>
+      </c>
+      <c r="J36" s="17">
+        <v>8</v>
+      </c>
+      <c r="K36" s="17">
+        <v>7</v>
+      </c>
+      <c r="L36" s="17">
+        <v>7</v>
+      </c>
+      <c r="M36" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="W36" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17">
+        <v>7</v>
+      </c>
+      <c r="Z36" s="17">
+        <v>7</v>
+      </c>
+      <c r="AA36" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE36" s="17"/>
+      <c r="AF36" s="17"/>
+      <c r="AG36" s="17"/>
+      <c r="AH36" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI36" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ36" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK36" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL36" s="17"/>
+      <c r="AM36" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN36" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO36" s="17"/>
+      <c r="AP36" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ36" s="17"/>
+      <c r="AR36" s="17"/>
+      <c r="AS36" s="17"/>
+      <c r="AT36" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU36" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV36" s="17">
+        <v>7</v>
+      </c>
+      <c r="AW36" s="17">
+        <v>8</v>
+      </c>
+      <c r="AX36" s="17"/>
+      <c r="AY36" s="17"/>
+      <c r="AZ36" s="17"/>
+      <c r="BA36" s="17"/>
+      <c r="BB36" s="17"/>
+      <c r="BC36" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BD36" s="17"/>
+      <c r="BE36" s="17"/>
+      <c r="BF36" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BG36" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BH36" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BI36" s="17"/>
+      <c r="BJ36" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK36" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL36" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM36" s="17"/>
+      <c r="BN36" s="17"/>
+      <c r="BO36" s="17"/>
+      <c r="BP36" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BQ36" s="17"/>
+      <c r="BR36" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BS36" s="17"/>
+      <c r="BT36" s="17"/>
+      <c r="BU36" s="17"/>
+      <c r="BV36" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BW36" s="17"/>
+      <c r="BX36" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY36" s="17"/>
+      <c r="BZ36" s="17">
+        <v>9</v>
+      </c>
+      <c r="CA36" s="17">
+        <v>9</v>
+      </c>
+      <c r="CB36" s="17">
+        <v>8</v>
+      </c>
+      <c r="CC36" s="17">
+        <v>8</v>
+      </c>
+      <c r="CD36" s="17">
+        <v>0</v>
+      </c>
+      <c r="CE36" s="17">
+        <v>7</v>
+      </c>
+      <c r="CF36" s="17">
+        <v>0</v>
+      </c>
+      <c r="CG36" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH36" s="17">
+        <v>0</v>
+      </c>
+      <c r="CI36" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ36" s="17">
+        <v>0</v>
+      </c>
+      <c r="CK36" s="18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E36">
+    <sortCondition descending="1" ref="C2:C36"/>
+    <sortCondition ref="A2:A36"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>